--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail0 Features.xlsx
@@ -4381,7 +4381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4392,29 +4392,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4435,115 +4433,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4560,72 +4548,66 @@
         <v>1.341553971953382e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.823391685736337</v>
+        <v>8.825139862872887e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>15.11027498003645</v>
+        <v>4.348329142018933e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.825139862872887e-07</v>
+        <v>-0.1090409164399739</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.348329142018933e-07</v>
+        <v>0.3205212588881414</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1090409164399739</v>
+        <v>0.1143489294889125</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3205212588881414</v>
+        <v>1.915100969257747</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1143489294889125</v>
+        <v>4.160508259067758</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.954057486639445</v>
+        <v>7.42290920724725</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>4.160508259067758</v>
+        <v>1.601506602455769e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7.42290920724725</v>
+        <v>203150060638.0138</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.601506602455769e-19</v>
+        <v>5.858402148165327e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>203150060638.0138</v>
+        <v>6609.409282327228</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.858402148165327e-10</v>
+        <v>2.366108642943617e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6609.409282327228</v>
+        <v>10.16578823049546</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.366108642943617e-05</v>
+        <v>1.15122256091171</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.16578823049546</v>
+        <v>0.00244521357836585</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.15122256091171</v>
+        <v>7.512876458700993</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.00244521357836585</v>
+        <v>0.9631000882476763</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.512876458700993</v>
+        <v>0.6989127560899112</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9631000882476763</v>
+        <v>536</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6989127560899112</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>536</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>13.30826561278145</v>
       </c>
     </row>
@@ -4640,72 +4622,66 @@
         <v>9.731383453992146e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.833861228534722</v>
+        <v>6.427001688955963e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>15.19252671488582</v>
+        <v>4.223225686946666e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.427001688955963e-07</v>
+        <v>-0.1092263684439399</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.223225686946666e-07</v>
+        <v>0.3219092972698784</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1092263684439399</v>
+        <v>0.1152722406301165</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3219092972698784</v>
+        <v>1.911932006256023</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1152722406301165</v>
+        <v>3.896001325066695</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.951066609821485</v>
+        <v>7.533938472151986</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.896001325066695</v>
+        <v>1.659515217195875e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>7.533938472151986</v>
+        <v>196449833052.0313</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.659515217195875e-19</v>
+        <v>6.07247013193534e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>196449833052.0313</v>
+        <v>6404.490226598415</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.07247013193534e-10</v>
+        <v>1.819735244544892e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6404.490226598415</v>
+        <v>9.438067024462951</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1.819735244544892e-05</v>
+        <v>1.20967133856665</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.438067024462951</v>
+        <v>0.00162096755017449</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.20967133856665</v>
+        <v>7.881149023298231</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.00162096755017449</v>
+        <v>0.9626724375823066</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>7.881149023298231</v>
+        <v>0.7013537417389605</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9626724375823066</v>
+        <v>523</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7013537417389605</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>523</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>14.64173691025412</v>
       </c>
     </row>
@@ -4720,72 +4696,66 @@
         <v>7.050008365230284e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.847246680804698</v>
+        <v>4.678946688333034e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>15.29745757418426</v>
+        <v>4.132379619408048e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.678946688333034e-07</v>
+        <v>-0.1094228020189126</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.132379619408048e-07</v>
+        <v>0.3234518581718966</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1094228020189126</v>
+        <v>0.116307811030074</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3234518581718966</v>
+        <v>1.912842086429686</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.116307811030074</v>
+        <v>4.190363225421816</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.952333221003403</v>
+        <v>7.450506476084945</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>4.190363225421816</v>
+        <v>1.69689036686613e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.450506476084945</v>
+        <v>199687008663.7506</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.69689036686613e-19</v>
+        <v>5.972300738926853e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>199687008663.7506</v>
+        <v>6766.333611473691</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.972300738926853e-10</v>
+        <v>1.344556154609012e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>6766.333611473691</v>
+        <v>8.804050462051249</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1.344556154609012e-05</v>
+        <v>1.545213821252698</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.804050462051249</v>
+        <v>0.00104218301568805</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.545213821252698</v>
+        <v>8.293618982357568</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00104218301568805</v>
+        <v>0.9625456076518317</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.293618982357568</v>
+        <v>0.7237895043467785</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9625456076518317</v>
+        <v>546</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7237895043467785</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>546</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>16.64645643879425</v>
       </c>
     </row>
@@ -4800,72 +4770,66 @@
         <v>5.099722587549715e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.865893061747992</v>
+        <v>3.407358654947898e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>15.45394903381093</v>
+        <v>4.066474043794273e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.407358654947898e-07</v>
+        <v>-0.1096992965037196</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.066474043794273e-07</v>
+        <v>0.3256261968745064</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1096992965037196</v>
+        <v>0.1177771891219958</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3256261968745064</v>
+        <v>1.912599156421555</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1177771891219958</v>
+        <v>4.384279903542718</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.952294489260168</v>
+        <v>7.627842341198946</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>4.384279903542718</v>
+        <v>1.61890722439752e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.627842341198946</v>
+        <v>209688941895.5691</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.61890722439752e-19</v>
+        <v>5.681256874740126e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>209688941895.5691</v>
+        <v>7118.246406753299</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.681256874740126e-10</v>
+        <v>8.10456633417426e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7118.246406753299</v>
+        <v>8.998111147663339</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>8.10456633417426e-06</v>
+        <v>1.615261495194189</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.998111147663339</v>
+        <v>0.0006561943520602455</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.615261495194189</v>
+        <v>8.633114322813821</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0006561943520602455</v>
+        <v>0.9637619195299462</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.633114322813821</v>
+        <v>0.7158464202019066</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9637619195299462</v>
+        <v>586</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7158464202019066</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>586</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>18.72247890474756</v>
       </c>
     </row>
@@ -4880,72 +4844,66 @@
         <v>3.680139179270752e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3.88950103295715</v>
+        <v>2.484290517973985e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>15.67704751885783</v>
+        <v>4.018686722763894e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.484290517973985e-07</v>
+        <v>-0.1102075153788125</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.018686722763894e-07</v>
+        <v>0.3294941169757142</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.1102075153788125</v>
+        <v>0.1204187093828177</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3294941169757142</v>
+        <v>1.912823599674651</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1204187093828177</v>
+        <v>3.735027615866628</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.953920264012161</v>
+        <v>8.056697429125357</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.735027615866628</v>
+        <v>1.45114653586498e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>8.056697429125357</v>
+        <v>229585898052.3251</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.45114653586498e-19</v>
+        <v>5.197375496576572e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>229585898052.3251</v>
+        <v>7648.947619132219</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.197375496576572e-10</v>
+        <v>4.875648344589678e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7648.947619132219</v>
+        <v>9.529314363211007</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>4.875648344589678e-06</v>
+        <v>1.396108856490094</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.529314363211007</v>
+        <v>0.0004427470569021142</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.396108856490094</v>
+        <v>8.783198589881664</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0004427470569021142</v>
+        <v>0.9635566669147509</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.783198589881664</v>
+        <v>0.7031743033879488</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9635566669147509</v>
+        <v>623</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.7031743033879488</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>623</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>19.62381151255095</v>
       </c>
     </row>
@@ -4960,72 +4918,66 @@
         <v>2.64585568418274e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>3.910900908197794</v>
+        <v>1.810964902016624e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>15.92008549068395</v>
+        <v>3.984070925084829e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.810964902016624e-07</v>
+        <v>-0.1108820534799371</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.984070925084829e-07</v>
+        <v>0.3348964737389192</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.1108820534799371</v>
+        <v>0.1241471996673166</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3348964737389192</v>
+        <v>1.911213734915684</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1241471996673166</v>
+        <v>3.744432169776109</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.949802888564055</v>
+        <v>8.191004419795592</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.744432169776109</v>
+        <v>1.403948110693008e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>8.191004419795592</v>
+        <v>234358154859.0302</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.403948110693008e-19</v>
+        <v>5.092407798398518e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>234358154859.0302</v>
+        <v>7711.008767244414</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.092407798398518e-10</v>
+        <v>3.525702779135956e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>7711.008767244414</v>
+        <v>8.670128673023221</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3.525702779135956e-06</v>
+        <v>1.508874493656454</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.670128673023221</v>
+        <v>0.0002650310662065358</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.508874493656454</v>
+        <v>8.901015941995892</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0002650310662065358</v>
+        <v>0.9624612248129836</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.901015941995892</v>
+        <v>0.6361903050039274</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9624612248129836</v>
+        <v>621</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6361903050039274</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>621</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>19.78237562101146</v>
       </c>
     </row>
@@ -5040,72 +4992,66 @@
         <v>1.894292332106004e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>3.920146107414951</v>
+        <v>1.319193829410753e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>16.13816639847707</v>
+        <v>3.959073528199532e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.319193829410753e-07</v>
+        <v>-0.1116232720615365</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.959073528199532e-07</v>
+        <v>0.3417610865289855</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.1116232720615365</v>
+        <v>0.1289454594781558</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3417610865289855</v>
+        <v>1.908253501278168</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1289454594781558</v>
+        <v>3.411133038652706</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.948938684041817</v>
+        <v>8.562596198853827</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.411133038652706</v>
+        <v>1.284737644912709e-19</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>8.562596198853827</v>
+        <v>251812626844.7138</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.284737644912709e-19</v>
+        <v>4.713986813157595e-10</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>251812626844.7138</v>
+        <v>8146.469893349828</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.713986813157595e-10</v>
+        <v>2.515452679259712e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>8146.469893349828</v>
+        <v>7.137187293027917</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>2.515452679259712e-06</v>
+        <v>1.703144517254142</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.137187293027917</v>
+        <v>0.0001281357570053354</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.703144517254142</v>
+        <v>9.0121391602025</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0001281357570053354</v>
+        <v>0.9622451820613896</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>9.0121391602025</v>
+        <v>0.6196620288310923</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9622451820613896</v>
+        <v>642</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.6196620288310923</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>642</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>20.59615718965899</v>
       </c>
     </row>
@@ -5120,72 +5066,66 @@
         <v>1.35062671911324e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3.89561621781646</v>
+        <v>9.605989763878262e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>16.23611122881256</v>
+        <v>3.941094848240453e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>9.605989763878262e-08</v>
+        <v>-0.1123072811381969</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.941094848240453e-07</v>
+        <v>0.3505699544725041</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.1123072811381969</v>
+        <v>0.1351831804001638</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3505699544725041</v>
+        <v>1.913186352131392</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.1351831804001638</v>
+        <v>4.579500274836724</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.948631692301733</v>
+        <v>7.136403267465085</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>4.579500274836724</v>
+        <v>1.238249609754088e-19</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>7.136403267465085</v>
+        <v>259943522151.1458</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.238249609754088e-19</v>
+        <v>4.588121777862218e-10</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>259943522151.1458</v>
+        <v>8366.931205844205</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.588121777862218e-10</v>
+        <v>2.469556361281771e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>8366.931205844205</v>
+        <v>7.055934173564991</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>2.469556361281771e-06</v>
+        <v>1.793491784383961</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.055934173564991</v>
+        <v>0.0001229498443532689</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.793491784383961</v>
+        <v>9.038600181183313</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0001229498443532689</v>
+        <v>0.9637447625368247</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>9.038600181183313</v>
+        <v>0.6354243366267639</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9637447625368247</v>
+        <v>633</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.6354243366267639</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>633</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>21.10765949195917</v>
       </c>
     </row>
@@ -5200,72 +5140,66 @@
         <v>9.603000630814892e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3.790525113688808</v>
+        <v>6.997078069310303e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>16.01480087490661</v>
+        <v>3.92823318437552e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.997078069310303e-08</v>
+        <v>-0.1126339494272858</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.92823318437552e-07</v>
+        <v>0.3619463603473313</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.1126339494272858</v>
+        <v>0.143348582934553</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.3619463603473313</v>
+        <v>1.913887003364004</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.143348582934553</v>
+        <v>4.733657827194316</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.952204309262066</v>
+        <v>7.23306437461869</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>4.733657827194316</v>
+        <v>1.205375349949421e-19</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>7.23306437461869</v>
+        <v>267611143160.4849</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.205375349949421e-19</v>
+        <v>4.456172538200601e-10</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>267611143160.4849</v>
+        <v>8632.382831047213</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.456172538200601e-10</v>
+        <v>3.377282260251553e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>8632.382831047213</v>
+        <v>8.603683029848044</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>3.377282260251553e-06</v>
+        <v>1.632615915119258</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.603683029848044</v>
+        <v>0.0002499977862396156</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.632615915119258</v>
+        <v>8.965502391013212</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0002499977862396156</v>
+        <v>0.9649057746138764</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.965502391013212</v>
+        <v>0.6391446139445857</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9649057746138764</v>
+        <v>625</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.6391446139445857</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>625</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>20.56588414945475</v>
       </c>
     </row>
@@ -5280,72 +5214,66 @@
         <v>6.833146132861977e-09</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>3.502996118428534</v>
+        <v>5.108524331584653e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>15.02893550687762</v>
+        <v>3.919090217185352e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.108524331584653e-08</v>
+        <v>-0.1121406078893384</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.919090217185352e-07</v>
+        <v>0.3774423700895283</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.1121406078893384</v>
+        <v>0.1546846838303548</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3774423700895283</v>
+        <v>1.909111872400296</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.1546846838303548</v>
+        <v>3.904671491287225</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.952423990157934</v>
+        <v>10.0614527590216</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.904671491287225</v>
+        <v>1.237031773240909e-19</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>10.0614527590216</v>
+        <v>261665090702.6431</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.237031773240909e-19</v>
+        <v>4.55416673858064e-10</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>261665090702.6431</v>
+        <v>8469.785802947479</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.55416673858064e-10</v>
+        <v>3.365517901525856e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>8469.785802947479</v>
+        <v>8.799742682050679</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>3.365517901525856e-06</v>
+        <v>1.510155938296783</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.799742682050679</v>
+        <v>0.0002606104647733008</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.510155938296783</v>
+        <v>8.931925770986794</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0002606104647733008</v>
+        <v>0.9657034662220779</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.931925770986794</v>
+        <v>0.6539644777817583</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9657034662220779</v>
+        <v>624</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.6539644777817583</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>624</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>19.79883164573691</v>
       </c>
     </row>
@@ -5360,72 +5288,66 @@
         <v>4.90750939153406e-09</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>2.832571544213288</v>
+        <v>3.736222210770836e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>12.31399526141872</v>
+        <v>3.912637496013889e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.736222210770836e-08</v>
+        <v>-0.1095556503419404</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.912637496013889e-07</v>
+        <v>0.3961376973297991</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.1095556503419404</v>
+        <v>0.1685549292418312</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.3961376973297991</v>
+        <v>1.908883976679788</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.1685549292418312</v>
+        <v>3.52668206633636</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.949862537213239</v>
+        <v>10.30311293234107</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.52668206633636</v>
+        <v>1.438114077184614e-19</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>10.30311293234107</v>
+        <v>233269449179.267</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.438114077184614e-19</v>
+        <v>5.117454435820542e-10</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>233269449179.267</v>
+        <v>7825.445392200084</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.117454435820542e-10</v>
+        <v>4.109844790803975e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>7825.445392200084</v>
+        <v>7.259487511248643</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>4.109844790803975e-06</v>
+        <v>1.578595415010432</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.259487511248643</v>
+        <v>0.00021658947363646</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.578595415010432</v>
+        <v>8.863615166747918</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.00021658947363646</v>
+        <v>0.9665816202944146</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.863615166747918</v>
+        <v>0.6850787643933303</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9665816202944146</v>
+        <v>613</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.6850787643933303</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>613</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>18.47386928858059</v>
       </c>
     </row>
@@ -5440,72 +5362,66 @@
         <v>3.644048438183875e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.603276636327104</v>
+        <v>2.713938383156067e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>7.286394543888886</v>
+        <v>3.908158113748594e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.713938383156067e-08</v>
+        <v>-0.1009125665991159</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.908158113748594e-07</v>
+        <v>0.4047260801800944</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.1009125665991159</v>
+        <v>0.1736090947605358</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.4047260801800944</v>
+        <v>1.908983318811602</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.1736090947605358</v>
+        <v>3.516253116029595</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.952356793731889</v>
+        <v>10.26358455147183</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.516253116029595</v>
+        <v>1.449212692384198e-19</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>10.26358455147183</v>
+        <v>233456323109.1917</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.449212692384198e-19</v>
+        <v>5.111855325755235e-10</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>233456323109.1917</v>
+        <v>7898.47797341527</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.111855325755235e-10</v>
+        <v>7.315187296866437e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>7898.47797341527</v>
+        <v>7.050347133880988</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>7.315187296866437e-06</v>
+        <v>1.434397352017085</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.050347133880988</v>
+        <v>0.0003636189023299251</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.434397352017085</v>
+        <v>8.58134093348735</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0003636189023299251</v>
+        <v>0.9666642319396739</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.58134093348735</v>
+        <v>0.7122666675361617</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9666642319396739</v>
+        <v>617</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.7122666675361617</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>617</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>17.01863257891717</v>
       </c>
     </row>
@@ -5520,72 +5436,66 @@
         <v>2.914740096919765e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1472141452630252</v>
+        <v>1.95225416738531e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2.290141847942473</v>
+        <v>3.905149239825655e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.95225416738531e-08</v>
+        <v>-0.08276536136087793</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.905149239825655e-07</v>
+        <v>0.3875410612365513</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.08276536136087793</v>
+        <v>0.1567118992021782</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.3875410612365513</v>
+        <v>1.910169458486124</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.1567118992021782</v>
+        <v>3.487799611541526</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.956187732934949</v>
+        <v>10.01515035484484</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.487799611541526</v>
+        <v>1.52200230621439e-19</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>10.01515035484484</v>
+        <v>228538848504.8839</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.52200230621439e-19</v>
+        <v>5.228229240676102e-10</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>228538848504.8839</v>
+        <v>7949.418848356784</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.228229240676102e-10</v>
+        <v>1.200370108567207e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>7949.418848356784</v>
+        <v>7.937963823752808</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>1.200370108567207e-05</v>
+        <v>1.325894862758929</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.937963823752808</v>
+        <v>0.0007563684461138439</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.325894862758929</v>
+        <v>8.190948484027846</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0007563684461138439</v>
+        <v>0.9654077376531802</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.190948484027846</v>
+        <v>0.7105752558505263</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9654077376531802</v>
+        <v>602</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.7105752558505263</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>602</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>15.81698512129275</v>
       </c>
     </row>
@@ -5600,72 +5510,66 @@
         <v>2.575560736737522e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.7424632162867684</v>
+        <v>1.386883288127415e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.3246978720006868</v>
+        <v>3.903232087888117e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.386883288127415e-08</v>
+        <v>-0.05728948044305335</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.903232087888117e-07</v>
+        <v>0.3416818932170772</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05728948044305335</v>
+        <v>0.1197988163776033</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.3416818932170772</v>
+        <v>1.907703096307979</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.1197988163776033</v>
+        <v>3.615148278374185</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.948154433715376</v>
+        <v>9.944684150040846</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.615148278374185</v>
+        <v>1.543647981537163e-19</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>9.944684150040846</v>
+        <v>225808155959.7205</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.543647981537163e-19</v>
+        <v>5.301770450648011e-10</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>225808155959.7205</v>
+        <v>7870.956598879465</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>5.301770450648011e-10</v>
+        <v>1.519651285105879e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>7870.956598879465</v>
+        <v>8.047812976088315</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>1.519651285105879e-05</v>
+        <v>1.324088215318956</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.047812976088315</v>
+        <v>0.0009842370110114062</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.324088215318956</v>
+        <v>7.938673304951706</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0009842370110114062</v>
+        <v>0.9646704903372002</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>7.938673304951706</v>
+        <v>0.7191934742383426</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9646704903372002</v>
+        <v>588</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.7191934742383426</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>588</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>14.88563446677599</v>
       </c>
     </row>
@@ -5680,72 +5584,66 @@
         <v>2.463929901963202e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.9480800145112389</v>
+        <v>9.679767372537445e-09</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.1765194131135019</v>
+        <v>3.902123956230921e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>9.679767372537445e-09</v>
+        <v>-0.03166881552649634</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.902123956230921e-07</v>
+        <v>0.2854808628829179</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03166881552649634</v>
+        <v>0.08236430012242452</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2854808628829179</v>
+        <v>1.906685780649991</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.08236430012242452</v>
+        <v>3.308926255709797</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.947336618750747</v>
+        <v>9.993206338520476</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.308926255709797</v>
+        <v>1.528693955014868e-19</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>9.993206338520476</v>
+        <v>225545707435.9239</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.528693955014868e-19</v>
+        <v>5.307247903923116e-10</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>225545707435.9239</v>
+        <v>7776.598555882515</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.307247903923116e-10</v>
+        <v>1.347678449117903e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>7776.598555882515</v>
+        <v>7.634778641614753</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>1.347678449117903e-05</v>
+        <v>1.328374331840692</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.634778641614753</v>
+        <v>0.0007855596778285681</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.328374331840692</v>
+        <v>8.008712530052868</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0007855596778285681</v>
+        <v>0.9648895468511829</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.008712530052868</v>
+        <v>0.7310845851334472</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9648895468511829</v>
+        <v>582</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.7310845851334472</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>582</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>14.82984659264166</v>
       </c>
     </row>
@@ -5760,72 +5658,66 @@
         <v>2.446993964893863e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.9241157237308596</v>
+        <v>9.003777153818461e-09</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.1637756078921879</v>
+        <v>3.901616037556651e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.003777153818461e-09</v>
+        <v>-0.01086258342282368</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.901616037556651e-07</v>
+        <v>0.2378407877841001</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.01086258342282368</v>
+        <v>0.05661036450633202</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2378407877841001</v>
+        <v>1.912423792690009</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.05661036450633202</v>
+        <v>3.458028296930563</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.951256969946481</v>
+        <v>9.971655436999825</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.458028296930563</v>
+        <v>1.53530877106631e-19</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>9.971655436999825</v>
+        <v>227420037218.5827</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.53530877106631e-19</v>
+        <v>5.273027517949819e-10</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>227420037218.5827</v>
+        <v>7940.597515968693</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>5.273027517949819e-10</v>
+        <v>1.026777199609692e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>7940.597515968693</v>
+        <v>7.087469842518306</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>1.026777199609692e-05</v>
+        <v>1.555463660013347</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.087469842518306</v>
+        <v>0.0005157730718518317</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.555463660013347</v>
+        <v>8.269676981418312</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0005157730718518317</v>
+        <v>0.9651270639510268</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.269676981418312</v>
+        <v>0.7249887665701731</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9651270639510268</v>
+        <v>606</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.7249887665701731</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>606</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>15.46970789597475</v>
       </c>
     </row>
@@ -5840,72 +5732,66 @@
         <v>2.447252260956495e-09</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.915533674298217</v>
+        <v>9.003777153818461e-09</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.1521617733590461</v>
+        <v>3.901550144093142e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>9.003777153818461e-09</v>
+        <v>0.004550405464629098</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.901550144093142e-07</v>
+        <v>0.2052326902097329</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.004550405464629098</v>
+        <v>0.04210060545669227</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2052326902097329</v>
+        <v>1.915025631073468</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.04210060545669227</v>
+        <v>3.981261909867682</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.952475955305945</v>
+        <v>10.12021669493418</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.981261909867682</v>
+        <v>1.474528551360813e-19</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>10.12021669493418</v>
+        <v>234587811740.2941</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.474528551360813e-19</v>
+        <v>5.114117665709435e-10</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>234587811740.2941</v>
+        <v>8114.543159205346</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>5.114117665709435e-10</v>
+        <v>9.533868014326193e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>8114.543159205346</v>
+        <v>7.446991358419977</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>9.533868014326193e-06</v>
+        <v>1.58969681633387</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.446991358419977</v>
+        <v>0.0005287262042882671</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.58969681633387</v>
+        <v>8.367002836402339</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0005287262042882671</v>
+        <v>0.9653612004684321</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.367002836402339</v>
+        <v>0.71795847543352</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9653612004684321</v>
+        <v>626</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.71795847543352</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>626</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>15.94164880347673</v>
       </c>
     </row>
@@ -5920,72 +5806,66 @@
         <v>2.429513849173768e-09</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.9505171018726648</v>
+        <v>9.003777153818461e-09</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.2659091997445655</v>
+        <v>3.901806348131966e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>9.003777153818461e-09</v>
+        <v>0.01577259499952319</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.901806348131966e-07</v>
+        <v>0.1862642439991727</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.01577259499952319</v>
+        <v>0.03492162720764509</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1862642439991727</v>
+        <v>1.920298536618941</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.03492162720764509</v>
+        <v>3.412139614606385</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.955256557690815</v>
+        <v>9.842079105084656</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.412139614606385</v>
+        <v>1.492714934772924e-19</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>9.842079105084656</v>
+        <v>227602698671.856</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.492714934772924e-19</v>
+        <v>5.268418229728153e-10</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>227602698671.856</v>
+        <v>7732.709451430489</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>5.268418229728153e-10</v>
+        <v>1.11822194098476e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>7732.709451430489</v>
+        <v>8.33444965784542</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>1.11822194098476e-05</v>
+        <v>1.375343079310731</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.33444965784542</v>
+        <v>0.0007767510782682587</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.375343079310731</v>
+        <v>8.185123581647487</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0007767510782682587</v>
+        <v>0.9653945103664726</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>8.185123581647487</v>
+        <v>0.7326809689090776</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9653945103664726</v>
+        <v>619</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.7326809689090776</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>619</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>15.74690002582637</v>
       </c>
     </row>
@@ -6000,72 +5880,66 @@
         <v>2.381225913098466e-09</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-1.001536172354575</v>
+        <v>9.003777153818461e-09</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.5039673087501835</v>
+        <v>3.902290676108569e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>9.003777153818461e-09</v>
+        <v>0.02398807027180263</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.902290676108569e-07</v>
+        <v>0.1779313370223448</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.02398807027180263</v>
+        <v>0.0322240613777845</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1779313370223448</v>
+        <v>1.919124259229954</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.0322240613777845</v>
+        <v>3.259380028032255</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.950996258241106</v>
+        <v>9.534172362057435</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.259380028032255</v>
+        <v>1.590686453871089e-19</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>9.534172362057435</v>
+        <v>216546003192.0243</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.590686453871089e-19</v>
+        <v>5.534861579839826e-10</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>216546003192.0243</v>
+        <v>7459.074199516877</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>5.534861579839826e-10</v>
+        <v>1.509573644505854e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>7459.074199516877</v>
+        <v>7.836681694417756</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>1.509573644505854e-05</v>
+        <v>1.328199244879045</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.836681694417756</v>
+        <v>0.0009270832175199027</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.328199244879045</v>
+        <v>7.916819416781201</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0009270832175199027</v>
+        <v>0.9644025820353105</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>7.916819416781201</v>
+        <v>0.7181376303904041</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9644025820353105</v>
+        <v>604</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.7181376303904041</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>604</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>14.70326688388314</v>
       </c>
     </row>
@@ -6080,72 +5954,66 @@
         <v>2.300470080429281e-09</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-1.038958506698906</v>
+        <v>9.003777153818461e-09</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.8025227864478541</v>
+        <v>3.902928043090351e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>9.003777153818461e-09</v>
+        <v>0.0300794858334284</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.902928043090351e-07</v>
+        <v>0.1778319957822801</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.0300794858334284</v>
+        <v>0.03252431457694512</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1778319957822801</v>
+        <v>1.916550560621525</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.03252431457694512</v>
+        <v>3.768376130935116</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.94978711665023</v>
+        <v>9.530722320948993</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.768376130935116</v>
+        <v>1.591838292475658e-19</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>9.530722320948993</v>
+        <v>215593322723.6387</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.591838292475658e-19</v>
+        <v>5.565125621355549e-10</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>215593322723.6387</v>
+        <v>7398.94091949254</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>5.565125621355549e-10</v>
+        <v>1.464920645149232e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>7398.94091949254</v>
+        <v>7.46392411334922</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>1.464920645149232e-05</v>
+        <v>1.350571639253362</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.46392411334922</v>
+        <v>0.0008161096817212504</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.350571639253362</v>
+        <v>7.907652335596352</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0008161096817212504</v>
+        <v>0.9643488127581669</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>7.907652335596352</v>
+        <v>0.7210151929277615</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9643488127581669</v>
+        <v>589</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.7210151929277615</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>589</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>14.6546622451315</v>
       </c>
     </row>
@@ -6160,72 +6028,66 @@
         <v>2.190603678611299e-09</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.036627314557505</v>
+        <v>9.003777153818461e-09</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1.076740635215519</v>
+        <v>3.903657687507246e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9.003777153818461e-09</v>
+        <v>0.03461979324745371</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.903657687507246e-07</v>
+        <v>0.1840913858176903</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.03461979324745371</v>
+        <v>0.03508674089866205</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1840913858176903</v>
+        <v>1.921779829828409</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.03508674089866205</v>
+        <v>3.524155491770439</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.952963077846034</v>
+        <v>9.360132942706063</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.524155491770439</v>
+        <v>1.650389859191151e-19</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>9.360132942706063</v>
+        <v>213705730319.8947</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.650389859191151e-19</v>
+        <v>5.620503737345105e-10</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>213705730319.8947</v>
+        <v>7537.353455659043</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>5.620503737345105e-10</v>
+        <v>1.0218859045629e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>7537.353455659043</v>
+        <v>7.791244101189524</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>1.0218859045629e-05</v>
+        <v>1.49480077857714</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.791244101189524</v>
+        <v>0.000620320353158816</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.49480077857714</v>
+        <v>8.181634873299984</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.000620320353158816</v>
+        <v>0.9664124379897157</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>8.181634873299984</v>
+        <v>0.7219251299442391</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9664124379897157</v>
+        <v>606</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.7219251299442391</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>606</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>15.86964174968987</v>
       </c>
     </row>
@@ -6240,72 +6102,66 @@
         <v>2.057378744227852e-09</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.9668134768959991</v>
+        <v>9.003777153818461e-09</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1.219253932655151</v>
+        <v>3.904430717980823e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>9.003777153818461e-09</v>
+        <v>0.03792285810540751</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.904430717980823e-07</v>
+        <v>0.1953957492200783</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.03792285810540751</v>
+        <v>0.03961770001790265</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1953957492200783</v>
+        <v>1.923535676172804</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.03961770001790265</v>
+        <v>3.834918138120851</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.951898983052386</v>
+        <v>9.397112639793868</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.834918138120851</v>
+        <v>1.637426125672272e-19</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>9.397112639793868</v>
+        <v>215827787996.057</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.637426125672272e-19</v>
+        <v>5.560764147154872e-10</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>215827787996.057</v>
+        <v>7627.398460480466</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>5.560764147154872e-10</v>
+        <v>6.648241688523234e-06</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>7627.398460480466</v>
+        <v>8.56007231166681</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>6.648241688523234e-06</v>
+        <v>1.581041742514288</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.56007231166681</v>
+        <v>0.0004871488325848356</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.581041742514288</v>
+        <v>8.507452895352534</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0004871488325848356</v>
+        <v>0.96515361667545</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>8.507452895352534</v>
+        <v>0.732053245423713</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.96515361667545</v>
+        <v>606</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.732053245423713</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>606</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>17.3340644254325</v>
       </c>
     </row>
@@ -6320,72 +6176,66 @@
         <v>1.908891103247137e-09</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.7988852638501432</v>
+        <v>8.929298326818301e-09</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.094519557019513</v>
+        <v>3.905205212462519e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>8.929298326818301e-09</v>
+        <v>0.03993159339744431</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.905205212462519e-07</v>
+        <v>0.2106854532190469</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.03993159339744431</v>
+        <v>0.0459823165244383</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2106854532190469</v>
+        <v>1.918994249506758</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.0459823165244383</v>
+        <v>3.440057055924747</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.94993757770596</v>
+        <v>10.84472741862206</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.440057055924747</v>
+        <v>1.679869428249833e-19</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>10.84472741862206</v>
+        <v>213474690553.0963</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.679869428249833e-19</v>
+        <v>5.633479660188109e-10</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>213474690553.0963</v>
+        <v>7655.407474818729</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>5.633479660188109e-10</v>
+        <v>6.440758930722948e-06</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>7655.407474818729</v>
+        <v>9.05123074668675</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>6.440758930722948e-06</v>
+        <v>1.524271490008169</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.05123074668675</v>
+        <v>0.0005276577457427208</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.524271490008169</v>
+        <v>8.61065589466619</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.0005276577457427208</v>
+        <v>0.9643692392000182</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>8.61065589466619</v>
+        <v>0.723140816724643</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9643692392000182</v>
+        <v>610</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.723140816724643</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>610</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>17.78907498582774</v>
       </c>
     </row>
@@ -6400,72 +6250,66 @@
         <v>1.756925760374817e-09</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.5114348353967924</v>
+        <v>8.570193600001494e-09</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.5840256806528474</v>
+        <v>3.905940171029419e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>8.570193600001494e-09</v>
+        <v>0.03982265687632379</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3.905940171029419e-07</v>
+        <v>0.2279525455970038</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.03982265687632379</v>
+        <v>0.05354272600850462</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.2279525455970038</v>
+        <v>1.925019507506444</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.05354272600850462</v>
+        <v>3.700890686709429</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.951568177693895</v>
+        <v>10.75107447970921</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>3.700890686709429</v>
+        <v>1.709263688222924e-19</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>10.75107447970921</v>
+        <v>221975907139.4983</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.709263688222924e-19</v>
+        <v>5.449279528417162e-10</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>221975907139.4983</v>
+        <v>8422.106821563713</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>5.449279528417162e-10</v>
+        <v>9.538503628060999e-06</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>8422.106821563713</v>
+        <v>9.706664693473602</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>9.538503628060999e-06</v>
+        <v>1.451752748199</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.706664693473602</v>
+        <v>0.0008987115113826708</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.451752748199</v>
+        <v>8.499126192283549</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.0008987115113826708</v>
+        <v>0.963251064922875</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>8.499126192283549</v>
+        <v>0.7309726859977353</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.963251064922875</v>
+        <v>645</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.7309726859977353</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>645</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>17.24699364793465</v>
       </c>
     </row>
@@ -6480,72 +6324,66 @@
         <v>1.618762471294644e-09</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.1312020663959605</v>
+        <v>7.876075990804129e-09</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.2522362142868868</v>
+        <v>3.906586374518417e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>7.876075990804129e-09</v>
+        <v>0.03606789894708102</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>3.906586374518417e-07</v>
+        <v>0.2421925670076344</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.03606789894708102</v>
+        <v>0.05993891040693901</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.2421925670076344</v>
+        <v>1.92781766640688</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.05993891040693901</v>
+        <v>3.772792267245274</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.951571656574541</v>
+        <v>10.93075425286869</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>3.772792267245274</v>
+        <v>1.653531780975469e-19</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>10.93075425286869</v>
+        <v>226852586475.3062</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.653531780975469e-19</v>
+        <v>5.334720211640866e-10</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>226852586475.3062</v>
+        <v>8509.421123596198</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>5.334720211640866e-10</v>
+        <v>9.071223256166275e-06</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>8509.421123596198</v>
+        <v>10.97478168003379</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>9.071223256166275e-06</v>
+        <v>1.222843180829893</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>10.97478168003379</v>
+        <v>0.001092591040732183</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.222843180829893</v>
+        <v>8.467605337189106</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.001092591040732183</v>
+        <v>0.9623767715787507</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>8.467605337189106</v>
+        <v>0.7128857622663598</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9623767715787507</v>
+        <v>638</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.7128857622663598</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>638</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>17.48397097515023</v>
       </c>
     </row>
@@ -6560,72 +6398,66 @@
         <v>1.516059392580109e-09</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.2166567077453575</v>
+        <v>6.773142916006803e-09</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.9981510606722046</v>
+        <v>3.907084011755752e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6.773142916006803e-09</v>
+        <v>0.02636875926371507</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3.907084011755752e-07</v>
+        <v>0.2423807375865122</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.02636875926371507</v>
+        <v>0.05939444479381184</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.2423807375865122</v>
+        <v>1.929145393535768</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.05939444479381184</v>
+        <v>3.847580432978243</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.954829364704989</v>
+        <v>10.14129421137787</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>3.847580432978243</v>
+        <v>1.519263192853324e-19</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>10.14129421137787</v>
+        <v>240852025291.8392</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.519263192853324e-19</v>
+        <v>5.017571730308366e-10</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>240852025291.8392</v>
+        <v>8813.199913238757</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.017571730308366e-10</v>
+        <v>8.334958528969235e-06</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>8813.199913238757</v>
+        <v>11.18692615339775</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>8.334958528969235e-06</v>
+        <v>1.191281457524464</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>11.18692615339775</v>
+        <v>0.001043097695219501</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.191281457524464</v>
+        <v>8.443223939482202</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.001043097695219501</v>
+        <v>0.9616966782258041</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>8.443223939482202</v>
+        <v>0.6978600911402698</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9616966782258041</v>
+        <v>641</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.6978600911402698</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>641</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>17.80903622735426</v>
       </c>
     </row>
@@ -6640,72 +6472,66 @@
         <v>1.46613248917059e-09</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.3777899410796441</v>
+        <v>5.331217258992847e-09</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.255969309743913</v>
+        <v>3.907362452769977e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>5.331217258992847e-09</v>
+        <v>0.01052032707700413</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.907362452769977e-07</v>
+        <v>0.2175525427420033</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.01052032707700413</v>
+        <v>0.04737650372673068</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.2175525427420033</v>
+        <v>1.934861966388763</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.04737650372673068</v>
+        <v>3.819648600430692</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.959337592540881</v>
+        <v>10.1045698933468</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>3.819648600430692</v>
+        <v>1.530326562137524e-19</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>10.1045698933468</v>
+        <v>237551618263.2073</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.530326562137524e-19</v>
+        <v>5.097862373828436e-10</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>237551618263.2073</v>
+        <v>8635.750830269761</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>5.097862373828436e-10</v>
+        <v>1.04596947222544e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>8635.750830269761</v>
+        <v>9.322256922612501</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>1.04596947222544e-05</v>
+        <v>1.404659712147089</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.322256922612501</v>
+        <v>0.0009089942694103723</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.404659712147089</v>
+        <v>8.368500812661738</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.0009089942694103723</v>
+        <v>0.9613427747262717</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>8.368500812661738</v>
+        <v>0.6831451266176499</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9613427747262717</v>
+        <v>636</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.6831451266176499</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>636</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>17.3328649262635</v>
       </c>
     </row>
@@ -6720,72 +6546,66 @@
         <v>1.460771405409677e-09</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.3923243325835898</v>
+        <v>4.459082895910805e-09</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.269879944129015</v>
+        <v>3.907395374235607e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.459082895910805e-09</v>
+        <v>-0.005706616283950543</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.907395374235607e-07</v>
+        <v>0.1814835107677913</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.005706616283950543</v>
+        <v>0.03291621643870508</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1814835107677913</v>
+        <v>1.936276883817184</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.03291621643870508</v>
+        <v>3.478061425268017</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.961568722527415</v>
+        <v>9.83009306048095</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.478061425268017</v>
+        <v>1.455083437049293e-19</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>9.83009306048095</v>
+        <v>241639609407.8914</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.455083437049293e-19</v>
+        <v>4.975950216531479e-10</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>241639609407.8914</v>
+        <v>8496.18865789783</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>4.975950216531479e-10</v>
+        <v>1.230511280278274e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>8496.18865789783</v>
+        <v>8.928349142305738</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>1.230511280278274e-05</v>
+        <v>1.494722707296851</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.928349142305738</v>
+        <v>0.0009809072156180708</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.494722707296851</v>
+        <v>8.26693083656488</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.0009809072156180708</v>
+        <v>0.9601109950577236</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>8.26693083656488</v>
+        <v>0.6965418981057221</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9601109950577236</v>
+        <v>641</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.6965418981057221</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>641</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>17.10241765726265</v>
       </c>
     </row>
@@ -6800,72 +6620,66 @@
         <v>1.477042500898166e-09</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.3876485872801282</v>
+        <v>4.507277700573858e-09</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.284141539074815</v>
+        <v>3.907201425762473e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>4.507277700573858e-09</v>
+        <v>-0.02031173635642482</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.907201425762473e-07</v>
+        <v>0.1409687352974446</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.02031173635642482</v>
+        <v>0.02024071184915614</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1409687352974446</v>
+        <v>1.938488135919462</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02024071184915614</v>
+        <v>4.001826621955645</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.961803978954783</v>
+        <v>9.820989704548648</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>4.001826621955645</v>
+        <v>1.457782204067947e-19</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>9.820989704548648</v>
+        <v>243017930496.1148</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.457782204067947e-19</v>
+        <v>4.974240309585701e-10</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>243017930496.1148</v>
+        <v>8609.328527314819</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>4.974240309585701e-10</v>
+        <v>1.15072298687685e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>8609.328527314819</v>
+        <v>10.10147183248121</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>1.15072298687685e-05</v>
+        <v>1.282950426741101</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.10147183248121</v>
+        <v>0.001174194665477812</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.282950426741101</v>
+        <v>8.21941484185111</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.001174194665477812</v>
+        <v>0.961502756327358</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>8.21941484185111</v>
+        <v>0.6524137309428748</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.961502756327358</v>
+        <v>649</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.6524137309428748</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>649</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>17.26032020048997</v>
       </c>
     </row>
@@ -6880,72 +6694,66 @@
         <v>1.494884141425914e-09</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.4184500416843729</v>
+        <v>4.543402205227261e-09</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.280765183625173</v>
+        <v>3.906799895356963e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>4.543402205227261e-09</v>
+        <v>-0.03289351259689649</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.906799895356963e-07</v>
+        <v>0.09690767652012509</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.03289351259689649</v>
+        <v>0.01044926547998669</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.09690767652012509</v>
+        <v>1.941205712864866</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01044926547998669</v>
+        <v>3.998070610180583</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.963559866040441</v>
+        <v>9.85856492513939</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>3.998070610180583</v>
+        <v>1.44669091442121e-19</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>9.85856492513939</v>
+        <v>244233450539.3535</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.44669091442121e-19</v>
+        <v>4.948291939838233e-10</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>244233450539.3535</v>
+        <v>8629.508174224629</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.948291939838233e-10</v>
+        <v>1.240641488786337e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>8629.508174224629</v>
+        <v>10.85825574162155</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>1.240641488786337e-05</v>
+        <v>1.206192807642303</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.85825574162155</v>
+        <v>0.00146273762640394</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.206192807642303</v>
+        <v>8.126116112986439</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.00146273762640394</v>
+        <v>0.9621105505243394</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>8.126116112986439</v>
+        <v>0.6504619754457226</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9621105505243394</v>
+        <v>646</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.6504619754457226</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>646</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>16.82592578330733</v>
       </c>
     </row>
@@ -6960,72 +6768,66 @@
         <v>1.501567348122582e-09</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.4749063018618866</v>
+        <v>4.560523347725686e-09</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.223635207533144</v>
+        <v>3.906239736512076e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>4.560523347725686e-09</v>
+        <v>-0.04117378521255229</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.906239736512076e-07</v>
+        <v>0.06748145899528504</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.04117378521255229</v>
+        <v>0.006239171541667388</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.06748145899528504</v>
+        <v>1.941221198758635</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.006239171541667388</v>
+        <v>4.041082954091482</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.963362025748189</v>
+        <v>9.840126737789854</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>4.041082954091482</v>
+        <v>1.452117541477215e-19</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>9.840126737789854</v>
+        <v>240411781510.1212</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.452117541477215e-19</v>
+        <v>5.024132326863569e-10</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>240411781510.1212</v>
+        <v>8392.923508993334</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>5.024132326863569e-10</v>
+        <v>1.429184651209186e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>8392.923508993334</v>
+        <v>9.699791703762896</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>1.429184651209186e-05</v>
+        <v>1.273768847493125</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.699791703762896</v>
+        <v>0.001344662086348523</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.273768847493125</v>
+        <v>8.056949030995884</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.001344662086348523</v>
+        <v>0.9621718761316458</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>8.056949030995884</v>
+        <v>0.6531698686181183</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9621718761316458</v>
+        <v>627</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.6531698686181183</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>627</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>16.1508737568755</v>
       </c>
     </row>
@@ -7040,72 +6842,66 @@
         <v>1.493937313037152e-09</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.5353363789681805</v>
+        <v>4.564362149586313e-09</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.134525261103584</v>
+        <v>3.90557817608891e-07</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>4.564362149586313e-09</v>
+        <v>-0.04666104368106651</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>3.90557817608891e-07</v>
+        <v>0.04951774873321808</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.04666104368106651</v>
+        <v>0.004625939033933927</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.04951774873321808</v>
+        <v>1.937741795509283</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.004625939033933927</v>
+        <v>3.718559924404266</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.959754113550445</v>
+        <v>9.792256804164264</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>3.718559924404266</v>
+        <v>1.466349741476738e-19</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>9.792256804164264</v>
+        <v>239160684879.3845</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.466349741476738e-19</v>
+        <v>5.05266827575713e-10</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>239160684879.3845</v>
+        <v>8387.202791408399</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>5.05266827575713e-10</v>
+        <v>1.538109566743941e-05</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>8387.202791408399</v>
+        <v>8.774788417181171</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>1.538109566743941e-05</v>
+        <v>1.472862471298482</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.774788417181171</v>
+        <v>0.001184296865974803</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.472862471298482</v>
+        <v>8.076642368489514</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.001184296865974803</v>
+        <v>0.9628727397124258</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>8.076642368489514</v>
+        <v>0.659679301839452</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9628727397124258</v>
+        <v>613</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.659679301839452</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>613</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>16.34775356609083</v>
       </c>
     </row>
@@ -7120,72 +6916,66 @@
         <v>1.473417187383621e-09</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.5894641476734037</v>
+        <v>4.564362149586313e-09</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.041857064842465</v>
+        <v>3.904858246715607e-07</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>4.564362149586313e-09</v>
+        <v>-0.04996050863175724</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>3.904858246715607e-07</v>
+        <v>0.04171565833349841</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.04996050863175724</v>
+        <v>0.004235616648785637</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.04171565833349841</v>
+        <v>1.93810771896846</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.004235616648785637</v>
+        <v>3.91723827212791</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.961994195736374</v>
+        <v>9.58566970090256</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>3.91723827212791</v>
+        <v>1.530235367828312e-19</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>9.58566970090256</v>
+        <v>229005224413.9204</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.530235367828312e-19</v>
+        <v>5.28604610449827e-10</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>229005224413.9204</v>
+        <v>8025.073448504591</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>5.28604610449827e-10</v>
+        <v>1.268787970916252e-05</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>8025.073448504591</v>
+        <v>9.340278558189668</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>1.268787970916252e-05</v>
+        <v>1.369604158874702</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.340278558189668</v>
+        <v>0.001106900821104281</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.369604158874702</v>
+        <v>8.195336834148986</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.001106900821104281</v>
+        <v>0.9632836573409969</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>8.195336834148986</v>
+        <v>0.6651492071242063</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9632836573409969</v>
+        <v>575</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>0.6651492071242063</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>575</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>17.54130382763862</v>
       </c>
     </row>
@@ -7200,72 +6990,66 @@
         <v>1.442583518012235e-09</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.6358732631814695</v>
+        <v>4.564362149586313e-09</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.9601133236168318</v>
+        <v>3.904115642900378e-07</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>4.564362149586313e-09</v>
+        <v>-0.0516805184628359</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>3.904115642900378e-07</v>
+        <v>0.0408132103422186</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.0516805184628359</v>
+        <v>0.004336799417482514</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.0408132103422186</v>
+        <v>1.944819493230718</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.004336799417482514</v>
+        <v>4.034152285677248</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.966712492761149</v>
+        <v>9.563798593052354</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>4.034152285677248</v>
+        <v>1.537242251287579e-19</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>9.563798593052354</v>
+        <v>230435381362.5056</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.537242251287579e-19</v>
+        <v>5.274079971921009e-10</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>230435381362.5056</v>
+        <v>8162.827833593468</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>5.274079971921009e-10</v>
+        <v>9.597558937862057e-06</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>8162.827833593468</v>
+        <v>10.72306995899977</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>9.597558937862057e-06</v>
+        <v>1.192620281394636</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>10.72306995899977</v>
+        <v>0.001103567918069077</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.192620281394636</v>
+        <v>8.261329828110009</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.001103567918069077</v>
+        <v>0.9641565904209709</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>8.261329828110009</v>
+        <v>0.7047384775140559</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9641565904209709</v>
+        <v>591</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>0.7047384775140559</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>591</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>18.69523030538905</v>
       </c>
     </row>
@@ -7280,72 +7064,66 @@
         <v>1.4045149182961e-09</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.6754371615151825</v>
+        <v>4.559337976420949e-09</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.8927241836666653</v>
+        <v>3.903370374936145e-07</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.559337976420949e-09</v>
+        <v>-0.05294274456586073</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3.903370374936145e-07</v>
+        <v>0.04209183148943844</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05294274456586073</v>
+        <v>0.004575001261062732</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.04209183148943844</v>
+        <v>1.943619586541641</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.004575001261062732</v>
+        <v>4.087687716149993</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.966051737859317</v>
+        <v>9.252097698047221</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>4.087687716149993</v>
+        <v>1.64256564693418e-19</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>9.252097698047221</v>
+        <v>215869741261.8985</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.64256564693418e-19</v>
+        <v>5.61699997522667e-10</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>215869741261.8985</v>
+        <v>7654.314060905221</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>5.61699997522667e-10</v>
+        <v>1.308801976142722e-05</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>7654.314060905221</v>
+        <v>9.358671357347584</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>1.308801976142722e-05</v>
+        <v>1.363907183781318</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>9.358671357347584</v>
+        <v>0.00114631067147474</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.363907183781318</v>
+        <v>8.096838797039062</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.00114631067147474</v>
+        <v>0.9640100123332392</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>8.096838797039062</v>
+        <v>0.7274360061803993</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9640100123332392</v>
+        <v>579</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>0.7274360061803993</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>579</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>17.28972515775684</v>
       </c>
     </row>
@@ -7360,72 +7138,66 @@
         <v>1.36198802087789e-09</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.7090366189057274</v>
+        <v>4.507754045550451e-09</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.8393838604617758</v>
+        <v>3.902630563527485e-07</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>4.507754045550451e-09</v>
+        <v>-0.05393790700888679</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>3.902630563527485e-07</v>
+        <v>0.04392812132808677</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05393790700888679</v>
+        <v>0.004839143380957683</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.04392812132808677</v>
+        <v>1.94165497156398</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.004839143380957683</v>
+        <v>4.01111957144739</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.967594694336723</v>
+        <v>8.556558078807191</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>4.01111957144739</v>
+        <v>1.602976220563907e-19</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>8.556558078807191</v>
+        <v>217262048427.0682</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.602976220563907e-19</v>
+        <v>5.575839142085636e-10</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>217262048427.0682</v>
+        <v>7566.496223591035</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>5.575839142085636e-10</v>
+        <v>1.77735533785012e-05</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>7566.496223591035</v>
+        <v>8.07643183314069</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>1.77735533785012e-05</v>
+        <v>1.663147916481643</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>8.07643183314069</v>
+        <v>0.00115934669047291</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.663147916481643</v>
+        <v>7.80827435406661</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.00115934669047291</v>
+        <v>0.9631479804649438</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>7.80827435406661</v>
+        <v>0.7637699020896165</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9631479804649438</v>
+        <v>575</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>0.7637699020896165</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>575</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>15.18017010959705</v>
       </c>
     </row>
@@ -7802,7 +7574,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.524535646582433</v>
+        <v>1.533062314636634</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.300221724116049</v>
@@ -7891,7 +7663,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.516205448778157</v>
+        <v>1.535704627105742</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.441626518533089</v>
@@ -7980,7 +7752,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.497379349836271</v>
+        <v>1.508860618036855</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.298019403049891</v>
@@ -8069,7 +7841,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.53036811282417</v>
+        <v>1.541073927700908</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.179744927355556</v>
@@ -8158,7 +7930,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.560460489589377</v>
+        <v>1.569261126434242</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.105772102855378</v>
@@ -8247,7 +8019,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.558804260967889</v>
+        <v>1.56302269542192</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.660912333337928</v>
@@ -8336,7 +8108,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.532477866924642</v>
+        <v>1.534283343207556</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.606116550844088</v>
@@ -8425,7 +8197,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.543277554393349</v>
+        <v>1.543998302907588</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.37871597581747</v>
@@ -8514,7 +8286,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.520051522531169</v>
+        <v>1.519840046722413</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.636595596681689</v>
@@ -8603,7 +8375,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.486786711721506</v>
+        <v>1.476687524306042</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.494569373404111</v>
@@ -8692,7 +8464,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.432139811242688</v>
+        <v>1.419031497489706</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.263957957599298</v>
@@ -8781,7 +8553,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.434476687352553</v>
+        <v>1.420613916096331</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.260754325393827</v>
@@ -8870,7 +8642,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.434051976734231</v>
+        <v>1.423766769181265</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.314664031512431</v>
@@ -8959,7 +8731,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.44136841484202</v>
+        <v>1.437230222946646</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.0518563913731</v>
@@ -9048,7 +8820,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.431403117856519</v>
+        <v>1.431536389830864</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.338795865421881</v>
@@ -9137,7 +8909,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.427385908691573</v>
+        <v>1.429131284522705</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.158404173359432</v>
@@ -9226,7 +8998,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.439013174084673</v>
+        <v>1.439788119461243</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.311686509863852</v>
@@ -9315,7 +9087,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.435367799588501</v>
+        <v>1.438319850190239</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.297684505853244</v>
@@ -9404,7 +9176,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.418104613459457</v>
+        <v>1.422955436281061</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.327644149485799</v>
@@ -9493,7 +9265,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.417248882036996</v>
+        <v>1.418071921370906</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.352339464952941</v>
@@ -9582,7 +9354,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.42748776413527</v>
+        <v>1.426432392352408</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.317178192265999</v>
@@ -9671,7 +9443,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.429680567104745</v>
+        <v>1.427186721345751</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.310243712044548</v>
@@ -9760,7 +9532,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.431173427612712</v>
+        <v>1.429346130781581</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.348660523408625</v>
@@ -9849,7 +9621,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.447832008452131</v>
+        <v>1.445324648075294</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.334656148066086</v>
@@ -9938,7 +9710,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.400630073722575</v>
+        <v>1.397483296650039</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.321352528496694</v>
@@ -10027,7 +9799,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.407122971067754</v>
+        <v>1.406885926213666</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.276676419037657</v>
@@ -10116,7 +9888,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.389099906399128</v>
+        <v>1.395755243851739</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.3990108510223</v>
@@ -10205,7 +9977,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.380400113804961</v>
+        <v>1.384417699781263</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.317967362141195</v>
@@ -10294,7 +10066,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.379416964830851</v>
+        <v>1.379731964512434</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.201255355357435</v>
@@ -10383,7 +10155,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.384557345247085</v>
+        <v>1.381399669345148</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.128658095549095</v>
@@ -10472,7 +10244,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.407953392190016</v>
+        <v>1.401698174633291</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.351349714016974</v>
@@ -10561,7 +10333,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.407471998989671</v>
+        <v>1.401127623468618</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.391125856023725</v>
@@ -10650,7 +10422,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.415202559431945</v>
+        <v>1.402985977653497</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.398905969154305</v>
@@ -10739,7 +10511,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.443043099956382</v>
+        <v>1.425496601507746</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.383957368803314</v>
@@ -10828,7 +10600,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.445372363616853</v>
+        <v>1.431118045027347</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.367323313330862</v>
@@ -10917,7 +10689,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.426218080325552</v>
+        <v>1.419091365321143</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.418485765806763</v>
@@ -11006,7 +10778,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.418205959771185</v>
+        <v>1.41349789990454</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.394796408962763</v>
@@ -11095,7 +10867,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.417068351015518</v>
+        <v>1.408533798508033</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.359524559076443</v>
@@ -11184,7 +10956,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.40742206189831</v>
+        <v>1.394371820501668</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.314887582575953</v>
@@ -11273,7 +11045,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.458663827735341</v>
+        <v>1.443317051416808</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.296540211759586</v>
@@ -11362,7 +11134,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.505739136562883</v>
+        <v>1.4754789529798</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.436435180316722</v>
@@ -11451,7 +11223,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.533014858913398</v>
+        <v>1.501210951789141</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.538595559678436</v>
@@ -11540,7 +11312,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.523523525045496</v>
+        <v>1.489794680795558</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.680312725244698</v>
@@ -11629,7 +11401,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.518310987409623</v>
+        <v>1.483466047715786</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.72557142216019</v>
@@ -11718,7 +11490,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.522826236170829</v>
+        <v>1.489610977261368</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.720986153141408</v>
@@ -11807,7 +11579,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.514239801879128</v>
+        <v>1.473430370289101</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.549381566106275</v>
@@ -11896,7 +11668,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.507827455276534</v>
+        <v>1.467393577344774</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.59916878607289</v>
@@ -11985,7 +11757,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.51280594180068</v>
+        <v>1.478931814743352</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.650143802278143</v>
@@ -12074,7 +11846,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.496274336615275</v>
+        <v>1.458719124485411</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.679451332846212</v>
@@ -12163,7 +11935,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.490362087410348</v>
+        <v>1.442011505108785</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.540750396755771</v>
@@ -12252,7 +12024,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.522416034310505</v>
+        <v>1.46644449654849</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.548092022949353</v>
@@ -12341,7 +12113,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.526437043651327</v>
+        <v>1.473981772374497</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.783346404945285</v>
@@ -12430,7 +12202,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.527474079579092</v>
+        <v>1.47650015531025</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.816104065561581</v>
@@ -12519,7 +12291,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.555021105014998</v>
+        <v>1.497851358615364</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.797839651004014</v>
@@ -12608,7 +12380,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.552574517395136</v>
+        <v>1.494116162585777</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.060163867486986</v>
@@ -12697,7 +12469,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.552962961248218</v>
+        <v>1.497966445773841</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.944955816602169</v>
@@ -12786,7 +12558,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.484134241791345</v>
+        <v>1.4152487093743</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.366814293588165</v>
@@ -12875,7 +12647,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.273049069677424</v>
+        <v>1.23549134445991</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.467324850898067</v>
@@ -12964,7 +12736,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.248774020832474</v>
+        <v>1.217108207324558</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.477432115427932</v>
@@ -13053,7 +12825,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.244866867053069</v>
+        <v>1.214540206976766</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.475824365391175</v>
@@ -13142,7 +12914,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.220875681756848</v>
+        <v>1.196327192253289</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.490747829549325</v>
@@ -13231,7 +13003,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.170626940241965</v>
+        <v>1.142049922590652</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.506053243788647</v>
@@ -13320,7 +13092,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.164750316321</v>
+        <v>1.137001891746094</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.513585469769706</v>
@@ -13409,7 +13181,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.164556717454654</v>
+        <v>1.138532024189913</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.522690951693231</v>
@@ -13498,7 +13270,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.156089978541331</v>
+        <v>1.134252727072877</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.526109722242587</v>
@@ -13587,7 +13359,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.152867500312444</v>
+        <v>1.131237429122231</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.525943093170459</v>
@@ -13676,7 +13448,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.150017691509239</v>
+        <v>1.127161627385999</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.534083297439989</v>
@@ -13765,7 +13537,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.148984761590755</v>
+        <v>1.12640672522817</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.534407016652972</v>
@@ -13854,7 +13626,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.151059304012502</v>
+        <v>1.128520768535267</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.529221084908238</v>
@@ -13943,7 +13715,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.151999983986604</v>
+        <v>1.129412584499972</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.53258281559553</v>
@@ -14032,7 +13804,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.151893782085913</v>
+        <v>1.1291155271152</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.523808088990543</v>
@@ -14121,7 +13893,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.210123565512631</v>
+        <v>1.172619135556497</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.400625888793434</v>
@@ -14210,7 +13982,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.184217445738384</v>
+        <v>1.165245096902783</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.468495247546715</v>
@@ -14299,7 +14071,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.191358989169693</v>
+        <v>1.174631710505458</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.437117386763014</v>
@@ -14388,7 +14160,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.193697405680726</v>
+        <v>1.17601563092299</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.443749491415047</v>
@@ -14477,7 +14249,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.213218894912711</v>
+        <v>1.18849166504493</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.392350234770016</v>
@@ -14566,7 +14338,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.318493908680477</v>
+        <v>1.302769661805639</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.318715974976107</v>
@@ -14655,7 +14427,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.331948220665651</v>
+        <v>1.318864616147492</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.279354809444589</v>
@@ -14744,7 +14516,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.339100739163296</v>
+        <v>1.321722990358261</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.034255094847801</v>
@@ -14833,7 +14605,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.354384030679638</v>
+        <v>1.336120369689894</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.520187562245226</v>
@@ -14922,7 +14694,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.376238355141614</v>
+        <v>1.352099580663877</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.436112538553481</v>
@@ -15208,7 +14980,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.547901354639403</v>
+        <v>1.554544840628532</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.145627217451362</v>
@@ -15297,7 +15069,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.521687581746245</v>
+        <v>1.532061025129367</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.265601638950407</v>
@@ -15386,7 +15158,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.475029074863964</v>
+        <v>1.486746739251729</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.261178757698169</v>
@@ -15475,7 +15247,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.492758339353596</v>
+        <v>1.511246009330419</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.206197694857584</v>
@@ -15564,7 +15336,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.51668966667494</v>
+        <v>1.532611100408215</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.207374600311846</v>
@@ -15653,7 +15425,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.53516945911315</v>
+        <v>1.550795434575052</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.189115730596186</v>
@@ -15742,7 +15514,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.504640273214974</v>
+        <v>1.513673243302855</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.146192557002623</v>
@@ -15831,7 +15603,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.486466382227417</v>
+        <v>1.499477328904337</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.145020760764004</v>
@@ -15920,7 +15692,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.460517670410779</v>
+        <v>1.468727923529545</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.096717067862501</v>
@@ -16009,7 +15781,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.403268150117435</v>
+        <v>1.400695198624967</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.018856371770757</v>
@@ -16098,7 +15870,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.352245164436117</v>
+        <v>1.349099798814309</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.004733946259311</v>
@@ -16187,7 +15959,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.316626539763429</v>
+        <v>1.3103114756533</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.054262320688617</v>
@@ -16276,7 +16048,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.332991981817838</v>
+        <v>1.330856583281431</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.04536270123167</v>
@@ -16365,7 +16137,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.342799097315252</v>
+        <v>1.343467356906564</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.09587664259563</v>
@@ -16454,7 +16226,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.347980572766742</v>
+        <v>1.351438577139303</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.101565604495744</v>
@@ -16543,7 +16315,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.354276013307786</v>
+        <v>1.355853560677839</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.942126157674913</v>
@@ -16632,7 +16404,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.395825318550071</v>
+        <v>1.406908459052958</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.89195832846442</v>
@@ -16721,7 +16493,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.38632715988988</v>
+        <v>1.398526771950614</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.980030252071164</v>
@@ -16810,7 +16582,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.352525267078784</v>
+        <v>1.367238786722777</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.017113971005954</v>
@@ -16899,7 +16671,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.354253035807553</v>
+        <v>1.370661043792167</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.029433903707131</v>
@@ -16988,7 +16760,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.352736734393209</v>
+        <v>1.370480100067935</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.039837178899154</v>
@@ -17077,7 +16849,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.358125870426393</v>
+        <v>1.377480183350017</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.017081731029556</v>
@@ -17166,7 +16938,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.360908490584931</v>
+        <v>1.379404064880291</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.973279958007581</v>
@@ -17255,7 +17027,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.360050837020314</v>
+        <v>1.379857878897782</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.98783828956494</v>
@@ -17344,7 +17116,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.363730649229784</v>
+        <v>1.382471887337798</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.916214344139515</v>
@@ -17433,7 +17205,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.388106201707777</v>
+        <v>1.409696740255318</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.935073951231316</v>
@@ -17522,7 +17294,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.422254664531902</v>
+        <v>1.440930909327415</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.871091637355782</v>
@@ -17611,7 +17383,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.421738818426897</v>
+        <v>1.440263259376565</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.904701426303505</v>
@@ -17700,7 +17472,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.414812794518459</v>
+        <v>1.430300194706918</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.864586681072092</v>
@@ -17789,7 +17561,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.415571478770857</v>
+        <v>1.427099175546048</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.879904503626827</v>
@@ -17878,7 +17650,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.422690914606522</v>
+        <v>1.435985415511715</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.836286514269013</v>
@@ -17967,7 +17739,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.416942891359704</v>
+        <v>1.427396810069831</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.794108008311168</v>
@@ -18056,7 +17828,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.516159476218057</v>
+        <v>1.511068509711186</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.685511249489892</v>
@@ -18145,7 +17917,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.61432787628856</v>
+        <v>1.596132553230825</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.827494639914235</v>
@@ -18234,7 +18006,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.593830869204327</v>
+        <v>1.58059521190717</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.851704606147961</v>
@@ -18323,7 +18095,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.59002043618571</v>
+        <v>1.578707363353611</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.985827348948323</v>
@@ -18412,7 +18184,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.590233797020975</v>
+        <v>1.576358268631159</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.979165363901251</v>
@@ -18501,7 +18273,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.595780058956059</v>
+        <v>1.57462086685846</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.923594362020138</v>
@@ -18590,7 +18362,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.613285736273044</v>
+        <v>1.584488132022553</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.680827138925832</v>
@@ -18679,7 +18451,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.629263658272498</v>
+        <v>1.599219433662733</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.074799087252074</v>
@@ -18768,7 +18540,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.626848251942722</v>
+        <v>1.596183173687037</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.806839094156358</v>
@@ -18857,7 +18629,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.600121848388915</v>
+        <v>1.574730699677919</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.780316492016754</v>
@@ -18946,7 +18718,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.592761895623631</v>
+        <v>1.568273972461806</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.821511074125091</v>
@@ -19035,7 +18807,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.590362783489426</v>
+        <v>1.566723591464408</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.891792937434134</v>
@@ -19124,7 +18896,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.586430612230057</v>
+        <v>1.5616811290227</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.777914452666197</v>
@@ -19213,7 +18985,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.570351246373246</v>
+        <v>1.54340353955943</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.861055043489138</v>
@@ -19302,7 +19074,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.567740079955876</v>
+        <v>1.538565912743285</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.672880137986917</v>
@@ -19391,7 +19163,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.579909661401322</v>
+        <v>1.553264497635321</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.771968157552301</v>
@@ -19480,7 +19252,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.595066593135088</v>
+        <v>1.56432610201308</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.382896603606696</v>
@@ -19569,7 +19341,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.616170389471055</v>
+        <v>1.571642426016156</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.756030829820619</v>
@@ -19658,7 +19430,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.615749336755451</v>
+        <v>1.567097964041303</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.639864596269953</v>
@@ -19747,7 +19519,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.612969190168356</v>
+        <v>1.567163224745682</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.74701417612494</v>
@@ -19836,7 +19608,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.617515482673711</v>
+        <v>1.574136539076788</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.527765826193846</v>
@@ -19925,7 +19697,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.617410405045865</v>
+        <v>1.577217988473068</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.59571751160728</v>
@@ -20014,7 +19786,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.605026395114581</v>
+        <v>1.56850376129173</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.705212773158149</v>
@@ -20103,7 +19875,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.599211557109471</v>
+        <v>1.562914248171639</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.808904661663357</v>
@@ -20192,7 +19964,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.527538297398305</v>
+        <v>1.497357275337078</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.610825336058082</v>
@@ -20281,7 +20053,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.310010389617022</v>
+        <v>1.302080312698728</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.532800423756457</v>
@@ -20370,7 +20142,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.289906731730456</v>
+        <v>1.282996696592584</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.528513837643821</v>
@@ -20459,7 +20231,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.28339714916393</v>
+        <v>1.279896843993583</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.530542741537323</v>
@@ -20548,7 +20320,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.278098269793908</v>
+        <v>1.276557620045513</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.530335218666384</v>
@@ -20637,7 +20409,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.255324368147632</v>
+        <v>1.250382496139828</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.551344297664695</v>
@@ -20726,7 +20498,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.244450968632187</v>
+        <v>1.239838741658395</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.555268820146294</v>
@@ -20815,7 +20587,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.245714376902698</v>
+        <v>1.238108806258652</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.553477832517617</v>
@@ -20904,7 +20676,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.234868767697133</v>
+        <v>1.227419991362455</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.545607692685099</v>
@@ -20993,7 +20765,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.234839441100027</v>
+        <v>1.227681721699432</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.553617447492901</v>
@@ -21082,7 +20854,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.231552085759983</v>
+        <v>1.220649711877406</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.551576768690825</v>
@@ -21171,7 +20943,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.225855653751061</v>
+        <v>1.215256339463789</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.551215449854781</v>
@@ -21260,7 +21032,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.222331658500813</v>
+        <v>1.210612598002915</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.56077614207547</v>
@@ -21349,7 +21121,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.223866120460578</v>
+        <v>1.212312556529399</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.560585070845688</v>
@@ -21438,7 +21210,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.225676438755282</v>
+        <v>1.214249313108787</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.562073400754628</v>
@@ -21527,7 +21299,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.248706730767389</v>
+        <v>1.231348562477824</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.414459681664044</v>
@@ -21616,7 +21388,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.369035875058073</v>
+        <v>1.345203393438098</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.767457376728295</v>
@@ -21705,7 +21477,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.389929287484534</v>
+        <v>1.362741942883523</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.814190260903506</v>
@@ -21794,7 +21566,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.382746241623896</v>
+        <v>1.356128610621536</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.83590671396443</v>
@@ -21883,7 +21655,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.382624527415974</v>
+        <v>1.354963824048955</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.829443224104502</v>
@@ -21972,7 +21744,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.449584674349488</v>
+        <v>1.406097610170762</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.363200465382223</v>
@@ -22061,7 +21833,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.45766630791058</v>
+        <v>1.410841390169209</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.483495444673317</v>
@@ -22150,7 +21922,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.456821413875874</v>
+        <v>1.413475956871009</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.381382666961307</v>
@@ -22239,7 +22011,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.474120728875424</v>
+        <v>1.429795019990376</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.365212240399684</v>
@@ -22328,7 +22100,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.469076995176145</v>
+        <v>1.428926816274258</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.478681377952059</v>
@@ -22614,7 +22386,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.778767989907996</v>
+        <v>1.774946146393163</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.10272031671056</v>
@@ -22703,7 +22475,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.774890279705321</v>
+        <v>1.770163845102116</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.902275727418573</v>
@@ -22792,7 +22564,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.751963564499649</v>
+        <v>1.739947561219876</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.814352511311132</v>
@@ -22881,7 +22653,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.748850960799741</v>
+        <v>1.73798885427606</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.930577137265</v>
@@ -22970,7 +22742,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.756574709378607</v>
+        <v>1.742197392227526</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.921461037194498</v>
@@ -23059,7 +22831,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.772683928013052</v>
+        <v>1.747080354855038</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.969197533337096</v>
@@ -23148,7 +22920,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.754418501009879</v>
+        <v>1.724906858525752</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.227395095246586</v>
@@ -23237,7 +23009,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.758969740205034</v>
+        <v>1.724557838863439</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.63790054716046</v>
@@ -23326,7 +23098,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.740555809937318</v>
+        <v>1.704584178613259</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.221374346244126</v>
@@ -23415,7 +23187,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.69741413381798</v>
+        <v>1.650107731052008</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.331112718143271</v>
@@ -23504,7 +23276,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.657082587852114</v>
+        <v>1.613463871200644</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.022245085179962</v>
@@ -23593,7 +23365,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.645404763064852</v>
+        <v>1.596961347265688</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.062010612144507</v>
@@ -23682,7 +23454,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.669995200684686</v>
+        <v>1.623801089487814</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.2708270878867</v>
@@ -23771,7 +23543,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.684405462733229</v>
+        <v>1.647934900113724</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.247118757316964</v>
@@ -23860,7 +23632,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.688955052578875</v>
+        <v>1.657786083886961</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.452362824682692</v>
@@ -23949,7 +23721,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.696824619582447</v>
+        <v>1.661057208938959</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.297102168877223</v>
@@ -24038,7 +23810,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.708693610815744</v>
+        <v>1.674756629218096</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.094686523011886</v>
@@ -24127,7 +23899,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.704506639114156</v>
+        <v>1.674116215552818</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.334922818841576</v>
@@ -24216,7 +23988,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.702609241287802</v>
+        <v>1.679001396807611</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.185669412997994</v>
@@ -24305,7 +24077,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.705269201655184</v>
+        <v>1.679515139972242</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.224400003175803</v>
@@ -24394,7 +24166,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.700635488930137</v>
+        <v>1.677562960413647</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.546419743659735</v>
@@ -24483,7 +24255,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.691482905932235</v>
+        <v>1.668646085613066</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.623429410522895</v>
@@ -24572,7 +24344,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.68708715292525</v>
+        <v>1.665019721328203</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.435542080713534</v>
@@ -24661,7 +24433,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.688736369331944</v>
+        <v>1.668311975658816</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.492175646176333</v>
@@ -24750,7 +24522,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.673220788171417</v>
+        <v>1.658904559839878</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.524770916771648</v>
@@ -24839,7 +24611,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.678101465747967</v>
+        <v>1.662283107618359</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.101203924585983</v>
@@ -24928,7 +24700,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.680928604828258</v>
+        <v>1.664129145781363</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.331609938255295</v>
@@ -25017,7 +24789,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.65835375011233</v>
+        <v>1.63808666449498</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.542169553742715</v>
@@ -25106,7 +24878,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.63922679863013</v>
+        <v>1.614636766712328</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.109184409708821</v>
@@ -25195,7 +24967,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.632826919022946</v>
+        <v>1.596217808777171</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.120319091227926</v>
@@ -25284,7 +25056,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.631029850503804</v>
+        <v>1.598126500804225</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.357538033574723</v>
@@ -25373,7 +25145,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.631522973309264</v>
+        <v>1.597076713663026</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.260376826169126</v>
@@ -25462,7 +25234,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.63579268517845</v>
+        <v>1.59846237552579</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.447281942427173</v>
@@ -25551,7 +25323,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.640577353719102</v>
+        <v>1.59960015375426</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.549202410246044</v>
@@ -25640,7 +25412,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.646764032938741</v>
+        <v>1.602877108668774</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.678889828977941</v>
@@ -25729,7 +25501,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.660613440121022</v>
+        <v>1.621415463018334</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.548405275113793</v>
@@ -25818,7 +25590,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.664353741226134</v>
+        <v>1.626386059212077</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.690603767067096</v>
@@ -25907,7 +25679,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.670146303258019</v>
+        <v>1.62804375576214</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.543650712722779</v>
@@ -25996,7 +25768,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.67293547837837</v>
+        <v>1.614195080325735</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.5880108928083</v>
@@ -26085,7 +25857,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.684033459096577</v>
+        <v>1.620687215000822</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.668609812308608</v>
@@ -26174,7 +25946,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.696316207447838</v>
+        <v>1.623106736604676</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.125998411329559</v>
@@ -26263,7 +26035,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.692226485902255</v>
+        <v>1.625411251243365</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.426474151910745</v>
@@ -26352,7 +26124,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.687558865212856</v>
+        <v>1.621387572890048</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.9958560153742</v>
@@ -26441,7 +26213,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.689848810117245</v>
+        <v>1.618846906764994</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.397372054270205</v>
@@ -26530,7 +26302,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.699407658625847</v>
+        <v>1.638490181569486</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.512457060303017</v>
@@ -26619,7 +26391,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.685098822030669</v>
+        <v>1.614047582871956</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.306179127398408</v>
@@ -26708,7 +26480,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.675833733910695</v>
+        <v>1.603654773748248</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.552365783214085</v>
@@ -26797,7 +26569,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.687611284889495</v>
+        <v>1.615845770346455</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.309703889247403</v>
@@ -26886,7 +26658,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.678944262741651</v>
+        <v>1.594629464858618</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.419203561286785</v>
@@ -26975,7 +26747,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.665466340351267</v>
+        <v>1.568627880124074</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.249519401339844</v>
@@ -27064,7 +26836,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.663597140057929</v>
+        <v>1.563716690742342</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.014450565848395</v>
@@ -27153,7 +26925,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.665254484202941</v>
+        <v>1.566784256945088</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.693662856174663</v>
@@ -27242,7 +27014,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.65968232948311</v>
+        <v>1.562811060540203</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.6083664196371</v>
@@ -27331,7 +27103,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.647243807797437</v>
+        <v>1.56110074355073</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.110091132431222</v>
@@ -27420,7 +27192,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.6445227794461</v>
+        <v>1.554685754918966</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.346712222604487</v>
@@ -27509,7 +27281,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.645164450774414</v>
+        <v>1.556272310067248</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.317869050458139</v>
@@ -27598,7 +27370,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.577641218707712</v>
+        <v>1.501695032896991</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.682129023195124</v>
@@ -27687,7 +27459,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.405469806690764</v>
+        <v>1.358164043437391</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.752723807835705</v>
@@ -27776,7 +27548,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.395353357439325</v>
+        <v>1.349687929184767</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.764884212588408</v>
@@ -27865,7 +27637,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.389089904653962</v>
+        <v>1.341138982011024</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.756930659298902</v>
@@ -27954,7 +27726,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.3874489602642</v>
+        <v>1.345874700980181</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.779644189088105</v>
@@ -28043,7 +27815,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.396787409538845</v>
+        <v>1.357427822768544</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.788503752738528</v>
@@ -28132,7 +27904,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.392624293941622</v>
+        <v>1.354591871413912</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.804491721157395</v>
@@ -28221,7 +27993,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.394435179025978</v>
+        <v>1.361506115236664</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.77133167718727</v>
@@ -28310,7 +28082,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.38324759265803</v>
+        <v>1.360807420085477</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.779256366371706</v>
@@ -28399,7 +28171,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.381750655530878</v>
+        <v>1.360821139975948</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.785162803389083</v>
@@ -28488,7 +28260,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.377444315053124</v>
+        <v>1.356784974078941</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.783544555469704</v>
@@ -28577,7 +28349,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.376151734629726</v>
+        <v>1.356292208877551</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.770709306110052</v>
@@ -28666,7 +28438,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.380127279341133</v>
+        <v>1.360564299812698</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.791019320527564</v>
@@ -28755,7 +28527,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.383797209510779</v>
+        <v>1.365756896121107</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.793642858484696</v>
@@ -28844,7 +28616,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.382797916862962</v>
+        <v>1.361907427807551</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.771534331071009</v>
@@ -28933,7 +28705,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.46345524346071</v>
+        <v>1.419605144182959</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.668858922497008</v>
@@ -29022,7 +28794,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.567304870797367</v>
+        <v>1.518400304095855</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.95968973886521</v>
@@ -29111,7 +28883,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.575300552252957</v>
+        <v>1.528750628482941</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.86567607215538</v>
@@ -29200,7 +28972,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.576797571253524</v>
+        <v>1.532871770346347</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.878665252854002</v>
@@ -29289,7 +29061,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.58373780589548</v>
+        <v>1.536356278760106</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.825141534556775</v>
@@ -29378,7 +29150,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.596616808791785</v>
+        <v>1.543487630895224</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.802361332339413</v>
@@ -29467,7 +29239,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.599247689270039</v>
+        <v>1.548617404242559</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.380741419117557</v>
@@ -29556,7 +29328,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.598576504432042</v>
+        <v>1.545369333458363</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.203686938049029</v>
@@ -29645,7 +29417,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.616312391093457</v>
+        <v>1.561393851053323</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.268512599063015</v>
@@ -29734,7 +29506,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.617545168070413</v>
+        <v>1.551809507676196</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.149515488975527</v>
@@ -30020,7 +29792,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.700369025966128</v>
+        <v>1.707942967912637</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.44028875102279</v>
@@ -30109,7 +29881,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.702563408092621</v>
+        <v>1.708086453965949</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.32419649294911</v>
@@ -30198,7 +29970,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.682761344827374</v>
+        <v>1.684756370935291</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.344988117718537</v>
@@ -30287,7 +30059,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.707922796529747</v>
+        <v>1.704635354947364</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.308447556622606</v>
@@ -30376,7 +30148,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.718761162896982</v>
+        <v>1.712976673935662</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.415758464315636</v>
@@ -30465,7 +30237,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.751522288278155</v>
+        <v>1.7345434236215</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.298714333127778</v>
@@ -30554,7 +30326,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.731744115914905</v>
+        <v>1.71410862132921</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.89978383469686</v>
@@ -30643,7 +30415,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.732882962942038</v>
+        <v>1.7104565705106</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.268574268691436</v>
@@ -30732,7 +30504,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.724342858308318</v>
+        <v>1.694479681928854</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.591876464658334</v>
@@ -30821,7 +30593,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.705217205396741</v>
+        <v>1.675635444834905</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.403846586401619</v>
@@ -30910,7 +30682,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.698022397161377</v>
+        <v>1.66646289937058</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.106353250386529</v>
@@ -30999,7 +30771,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.679770492209094</v>
+        <v>1.642065444574162</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.424598088448024</v>
@@ -31088,7 +30860,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.715832285449064</v>
+        <v>1.685009825805935</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.936723874801339</v>
@@ -31177,7 +30949,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.727281807792955</v>
+        <v>1.708828157539772</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.346383937724688</v>
@@ -31266,7 +31038,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.723945401697651</v>
+        <v>1.709054275330793</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.389956013408684</v>
@@ -31355,7 +31127,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.731805314218908</v>
+        <v>1.715436972148612</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.166480814750435</v>
@@ -31444,7 +31216,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.732385344735087</v>
+        <v>1.71903931433715</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.493973720361667</v>
@@ -31533,7 +31305,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.723660579278063</v>
+        <v>1.717580399991043</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.381361296461282</v>
@@ -31622,7 +31394,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.721612296175844</v>
+        <v>1.717619530652645</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.556928626492233</v>
@@ -31711,7 +31483,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.726912298883308</v>
+        <v>1.719424077949451</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.078685476551067</v>
@@ -31800,7 +31572,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.732170342261172</v>
+        <v>1.724280613351334</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.377363963683408</v>
@@ -31889,7 +31661,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.730946317684355</v>
+        <v>1.723443516150238</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.516393536235351</v>
@@ -31978,7 +31750,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.729090432971685</v>
+        <v>1.723888111983529</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.439406295540576</v>
@@ -32067,7 +31839,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.731189859945101</v>
+        <v>1.728418027730168</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.507238264165266</v>
@@ -32156,7 +31928,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.731432781672699</v>
+        <v>1.72340257331366</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.113989238528593</v>
@@ -32245,7 +32017,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.732012923598407</v>
+        <v>1.732163842027541</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.501341888027921</v>
@@ -32334,7 +32106,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.736621587919269</v>
+        <v>1.7336921225286</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.417918184860307</v>
@@ -32423,7 +32195,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.713659085031496</v>
+        <v>1.702339290978903</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.789238154487747</v>
@@ -32512,7 +32284,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.710669760175606</v>
+        <v>1.693145593084262</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.002805824409327</v>
@@ -32601,7 +32373,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.709744428387804</v>
+        <v>1.685692384725473</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.386661419972885</v>
@@ -32690,7 +32462,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.706630644969191</v>
+        <v>1.687564222176627</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.608550706452323</v>
@@ -32779,7 +32551,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.714357128087441</v>
+        <v>1.697124823211863</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.620238743197977</v>
@@ -32868,7 +32640,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.732444562577578</v>
+        <v>1.71307292426159</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.636959018952765</v>
@@ -32957,7 +32729,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.73526673870279</v>
+        <v>1.711651600852731</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.616719385793354</v>
@@ -33046,7 +32818,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.726807407036108</v>
+        <v>1.705319958690132</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.633128846455825</v>
@@ -33135,7 +32907,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.732057306542662</v>
+        <v>1.708637973187531</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.671139084369918</v>
@@ -33224,7 +32996,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.735160541063135</v>
+        <v>1.706579545630636</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.023794803428721</v>
@@ -33313,7 +33085,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.732145520577409</v>
+        <v>1.699421132246463</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.020104542777233</v>
@@ -33402,7 +33174,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.740380387552314</v>
+        <v>1.696106462520344</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.649400616828792</v>
@@ -33491,7 +33263,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.743825964439963</v>
+        <v>1.700360792673264</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.065057518488456</v>
@@ -33580,7 +33352,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.750010990126897</v>
+        <v>1.698660711825785</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.629694024698063</v>
@@ -33669,7 +33441,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.755432613224665</v>
+        <v>1.702461353045313</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.906621049491604</v>
@@ -33758,7 +33530,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.757591729538834</v>
+        <v>1.70258562642515</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.534064177443624</v>
@@ -33847,7 +33619,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.754343347424772</v>
+        <v>1.700145888973521</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.739828777112466</v>
@@ -33936,7 +33708,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.755571993826937</v>
+        <v>1.699913759382316</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.554028140753526</v>
@@ -34025,7 +33797,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.745102336431273</v>
+        <v>1.683683290736736</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.203144914801519</v>
@@ -34114,7 +33886,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.736616730738708</v>
+        <v>1.67160475162918</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.710188712567996</v>
@@ -34203,7 +33975,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.729867629662269</v>
+        <v>1.65257177224358</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.991531462255129</v>
@@ -34292,7 +34064,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.723822342014039</v>
+        <v>1.634707262118891</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.539032651914916</v>
@@ -34381,7 +34153,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.721469604997631</v>
+        <v>1.620171020436901</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.335398295249288</v>
@@ -34470,7 +34242,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.715802915870445</v>
+        <v>1.615271606087684</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.517625795638149</v>
@@ -34559,7 +34331,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.718821858511508</v>
+        <v>1.623558156417456</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.650578061865177</v>
@@ -34648,7 +34420,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.727494439368918</v>
+        <v>1.630992695844845</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.230592964844587</v>
@@ -34737,7 +34509,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.718957026345919</v>
+        <v>1.635110520799424</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.288981915268387</v>
@@ -34826,7 +34598,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.706406157144917</v>
+        <v>1.618800342967554</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.565211668822762</v>
@@ -34915,7 +34687,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.696977360579078</v>
+        <v>1.61534223900883</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.457951179574784</v>
@@ -35004,7 +34776,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.652783459018439</v>
+        <v>1.587264072838353</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.987472848654914</v>
@@ -35093,7 +34865,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.470599804776245</v>
+        <v>1.426376407704477</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.796173875664846</v>
@@ -35182,7 +34954,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.45855505722628</v>
+        <v>1.414587444584326</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.798471929881297</v>
@@ -35271,7 +35043,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.458379855147031</v>
+        <v>1.415669631867577</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.800379667283716</v>
@@ -35360,7 +35132,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.458318019244849</v>
+        <v>1.419417350169863</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.765059164767271</v>
@@ -35449,7 +35221,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.464665565722486</v>
+        <v>1.436035517561217</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.77619749862763</v>
@@ -35538,7 +35310,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.469547239277943</v>
+        <v>1.451934763554877</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.811090165232063</v>
@@ -35627,7 +35399,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.468226202613547</v>
+        <v>1.456444464282822</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.784220306830695</v>
@@ -35716,7 +35488,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.47041797996687</v>
+        <v>1.464378577222448</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.813100483084098</v>
@@ -35805,7 +35577,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.466625727912094</v>
+        <v>1.462415973709739</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.798095613827308</v>
@@ -35894,7 +35666,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.464505557053065</v>
+        <v>1.45578285382989</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.801512803879068</v>
@@ -35983,7 +35755,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.462254882777514</v>
+        <v>1.454322498671776</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.798033084024253</v>
@@ -36072,7 +35844,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.466542089327889</v>
+        <v>1.460069224043453</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.796371362227709</v>
@@ -36161,7 +35933,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.471149280520405</v>
+        <v>1.466280741987319</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.818162174159565</v>
@@ -36250,7 +36022,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.471139707939511</v>
+        <v>1.467867659542042</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.796456703049623</v>
@@ -36339,7 +36111,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.535823177769421</v>
+        <v>1.51654469130694</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.751350547993483</v>
@@ -36428,7 +36200,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.633436953452949</v>
+        <v>1.609991850095164</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.788563924059275</v>
@@ -36517,7 +36289,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.646766201195648</v>
+        <v>1.627309885609922</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.737893094304783</v>
@@ -36606,7 +36378,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.642002709547494</v>
+        <v>1.624721335545797</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.74603959832751</v>
@@ -36695,7 +36467,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.6469892530893</v>
+        <v>1.62600936331575</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.715850123009445</v>
@@ -36784,7 +36556,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.682160850842636</v>
+        <v>1.646531360228693</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.156133831218048</v>
@@ -36873,7 +36645,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.679803808520918</v>
+        <v>1.640981202660882</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.595142182297276</v>
@@ -36962,7 +36734,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.691727357810225</v>
+        <v>1.649071519677669</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.026391557227299</v>
@@ -37051,7 +36823,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.687791116711904</v>
+        <v>1.649456327668705</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.549681878340069</v>
@@ -37140,7 +36912,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.696896728378069</v>
+        <v>1.655311697524117</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.543226463257564</v>
@@ -37426,7 +37198,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.494483890374441</v>
+        <v>1.529439102346598</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.150834873456175</v>
@@ -37515,7 +37287,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.482659717785526</v>
+        <v>1.519217923776142</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.912448664932162</v>
@@ -37604,7 +37376,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.458442772995334</v>
+        <v>1.495246257132905</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.138117726626815</v>
@@ -37693,7 +37465,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.481175291542141</v>
+        <v>1.520997475264103</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.138825723368899</v>
@@ -37782,7 +37554,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.47961567557645</v>
+        <v>1.520548879048433</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.001703833296579</v>
@@ -37871,7 +37643,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.44590999913387</v>
+        <v>1.483402164787086</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.600659655250992</v>
@@ -37960,7 +37732,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.406027616825579</v>
+        <v>1.436870114732318</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.082661966157755</v>
@@ -38049,7 +37821,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.40639462627932</v>
+        <v>1.434408266793631</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.438890818886162</v>
@@ -38138,7 +37910,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.401368862517678</v>
+        <v>1.426759556452356</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.818921056917441</v>
@@ -38227,7 +37999,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.379886968673689</v>
+        <v>1.401024427973869</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.610623121251054</v>
@@ -38316,7 +38088,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.367044612057391</v>
+        <v>1.377728768541482</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.791659799225714</v>
@@ -38405,7 +38177,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.334186423044801</v>
+        <v>1.339197011832088</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.625402997445995</v>
@@ -38494,7 +38266,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.437752863926763</v>
+        <v>1.455541592425782</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.953626924933903</v>
@@ -38583,7 +38355,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.493023345461065</v>
+        <v>1.526363215111631</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.929384287163556</v>
@@ -38672,7 +38444,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.514530465249092</v>
+        <v>1.551045384926287</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.118162042698961</v>
@@ -38761,7 +38533,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.517671988155465</v>
+        <v>1.556654534277293</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.828893092340708</v>
@@ -38850,7 +38622,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.541646129524173</v>
+        <v>1.578222496871404</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.776752722786402</v>
@@ -38939,7 +38711,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.542878360147211</v>
+        <v>1.582563471314163</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.980227810813846</v>
@@ -39028,7 +38800,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.532471496420297</v>
+        <v>1.571839417636248</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.955755255860628</v>
@@ -39117,7 +38889,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.529992143015245</v>
+        <v>1.571176315834414</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.06256972891093</v>
@@ -39206,7 +38978,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.537352143278232</v>
+        <v>1.580068100541278</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.919094165458481</v>
@@ -39295,7 +39067,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.539597524621395</v>
+        <v>1.583445583126593</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.052914708145296</v>
@@ -39384,7 +39156,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.535526862121626</v>
+        <v>1.578925547192015</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.005899427076075</v>
@@ -39473,7 +39245,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.532115343412448</v>
+        <v>1.575606539479509</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.047659595303754</v>
@@ -39562,7 +39334,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.531598467239102</v>
+        <v>1.57421057057446</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.997690502773129</v>
@@ -39651,7 +39423,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.532794697679403</v>
+        <v>1.578473807970842</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.143552874333838</v>
@@ -39740,7 +39512,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.534731443789197</v>
+        <v>1.581565546804497</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.123755959360691</v>
@@ -39829,7 +39601,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.469432869582822</v>
+        <v>1.508568561009017</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.592715676112057</v>
@@ -39918,7 +39690,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.397189430761963</v>
+        <v>1.424275290620721</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.469604395082241</v>
@@ -40007,7 +39779,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.367632259945678</v>
+        <v>1.391084340539801</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.525424385278267</v>
@@ -40096,7 +39868,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.370766601307935</v>
+        <v>1.389987946709461</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.962491106276455</v>
@@ -40185,7 +39957,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.365982583487284</v>
+        <v>1.384145212745451</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.484178905835931</v>
@@ -40274,7 +40046,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.361448897944693</v>
+        <v>1.378660053355824</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.85164935647868</v>
@@ -40363,7 +40135,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.375460629931753</v>
+        <v>1.397767129097115</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.64665587081128</v>
@@ -40452,7 +40224,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.389792162341045</v>
+        <v>1.409601238347081</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.832629757767338</v>
@@ -40541,7 +40313,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.388363829052039</v>
+        <v>1.408749476585121</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.783448989924874</v>
@@ -40630,7 +40402,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.389216349661227</v>
+        <v>1.407969462118291</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.582055334296336</v>
@@ -40719,7 +40491,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.397020089532989</v>
+        <v>1.410474520085926</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.582311215096561</v>
@@ -40808,7 +40580,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.400620875981926</v>
+        <v>1.414847098122288</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.476542652974193</v>
@@ -40897,7 +40669,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.397352960494216</v>
+        <v>1.415979699334955</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.652702607303675</v>
@@ -40986,7 +40758,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.402577454779144</v>
+        <v>1.419627366713694</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.720418377220287</v>
@@ -41075,7 +40847,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.406346640547106</v>
+        <v>1.422912879554605</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.954155817250312</v>
@@ -41164,7 +40936,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.412924486851689</v>
+        <v>1.4294418030375</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.525321545321193</v>
@@ -41253,7 +41025,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.427209495991542</v>
+        <v>1.439937531180186</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.579946891843604</v>
@@ -41342,7 +41114,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.42887817940652</v>
+        <v>1.43957177930486</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.953965841866892</v>
@@ -41431,7 +41203,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.408422163400437</v>
+        <v>1.41878409722591</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.926097370932768</v>
@@ -41520,7 +41292,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.404385210625722</v>
+        <v>1.412670703916564</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.573668917252648</v>
@@ -41609,7 +41381,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.410456741805155</v>
+        <v>1.415978210447197</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.76936424354122</v>
@@ -41698,7 +41470,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.407084131168326</v>
+        <v>1.410231198444165</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.843263614819944</v>
@@ -41787,7 +41559,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.411024273549253</v>
+        <v>1.405920925217251</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.960156781485277</v>
@@ -41876,7 +41648,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.409616256727993</v>
+        <v>1.403069415860442</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.709565233868224</v>
@@ -41965,7 +41737,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.405387064890349</v>
+        <v>1.39701355590654</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.604889192904473</v>
@@ -42054,7 +41826,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.412755083328866</v>
+        <v>1.401386758414329</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.528773570469922</v>
@@ -42143,7 +41915,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.411414142393092</v>
+        <v>1.404651390351775</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.838502903577616</v>
@@ -42232,7 +42004,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.412104136500225</v>
+        <v>1.407268637380571</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.981933718132832</v>
@@ -42321,7 +42093,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.406145654320963</v>
+        <v>1.399672098938857</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.549102808208912</v>
@@ -42410,7 +42182,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.409188510325717</v>
+        <v>1.429205584385808</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.328286709477336</v>
@@ -42499,7 +42271,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.230350942027795</v>
+        <v>1.196292450752109</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.402011536174964</v>
@@ -42588,7 +42360,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.224873733000744</v>
+        <v>1.191223222110314</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.406138600050133</v>
@@ -42677,7 +42449,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.223927604081407</v>
+        <v>1.190312026070881</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.396168702645617</v>
@@ -42766,7 +42538,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.226811412847101</v>
+        <v>1.19074951891781</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.399589665756233</v>
@@ -42855,7 +42627,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.219703884821356</v>
+        <v>1.18403859704595</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.409282596835269</v>
@@ -42944,7 +42716,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.215268170006045</v>
+        <v>1.17935637578409</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.407909396487667</v>
@@ -43033,7 +42805,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.215087648741548</v>
+        <v>1.17895437621323</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.405192018420276</v>
@@ -43122,7 +42894,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.212032830871949</v>
+        <v>1.175344421362155</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.399555950518389</v>
@@ -43211,7 +42983,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.209600482841239</v>
+        <v>1.172012469659564</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.40252404524823</v>
@@ -43300,7 +43072,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.215062409053102</v>
+        <v>1.174207026910615</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.396347230250433</v>
@@ -43389,7 +43161,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.216408785399409</v>
+        <v>1.175494820901728</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.398481493207798</v>
@@ -43478,7 +43250,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.218075615197789</v>
+        <v>1.17596852790418</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.393669923421234</v>
@@ -43567,7 +43339,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.21993060623308</v>
+        <v>1.178583081018882</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.393782398274277</v>
@@ -43656,7 +43428,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.223705165239778</v>
+        <v>1.181190942071414</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.405194730990478</v>
@@ -43745,7 +43517,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.294604768025213</v>
+        <v>1.242202270835455</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.275605202430574</v>
@@ -43834,7 +43606,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.403241514314458</v>
+        <v>1.363464754542499</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.957870887185988</v>
@@ -43923,7 +43695,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.414535097466075</v>
+        <v>1.375952828419301</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.949627679912236</v>
@@ -44012,7 +43784,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.416772492327012</v>
+        <v>1.380621867023901</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.961661103285068</v>
@@ -44101,7 +43873,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.414480378372927</v>
+        <v>1.374979086641495</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.834238420250284</v>
@@ -44190,7 +43962,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.463364803610129</v>
+        <v>1.420666464907211</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.395459759958358</v>
@@ -44279,7 +44051,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.478902302970548</v>
+        <v>1.440699511759182</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.551859394419668</v>
@@ -44368,7 +44140,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.476938345705944</v>
+        <v>1.44241285065799</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.404366368169223</v>
@@ -44457,7 +44229,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.482345269914285</v>
+        <v>1.453069903401785</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.591160428946118</v>
@@ -44546,7 +44318,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.491310443690904</v>
+        <v>1.464420105271688</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.578229969455045</v>
@@ -44832,7 +44604,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.585408995265116</v>
+        <v>1.598640788586278</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.801058835117933</v>
@@ -44921,7 +44693,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.570408626209655</v>
+        <v>1.587968235513081</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.917357095657504</v>
@@ -45010,7 +44782,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.533801513200374</v>
+        <v>1.547967722020499</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.262647827205434</v>
@@ -45099,7 +44871,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.55189040722246</v>
+        <v>1.561599783695601</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.480189076762189</v>
@@ -45188,7 +44960,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.566570407293452</v>
+        <v>1.571662777704794</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.612914625896908</v>
@@ -45277,7 +45049,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.561010642833339</v>
+        <v>1.564819228282037</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.769842134491332</v>
@@ -45366,7 +45138,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.537146685947195</v>
+        <v>1.538638730875479</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.809693722966306</v>
@@ -45455,7 +45227,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.542030243032799</v>
+        <v>1.545531368025931</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.853099527585647</v>
@@ -45544,7 +45316,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.526329170923344</v>
+        <v>1.535994109329422</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.589925015808044</v>
@@ -45633,7 +45405,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.525716860448164</v>
+        <v>1.532887401580756</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.523742172902397</v>
@@ -45722,7 +45494,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.542241548060823</v>
+        <v>1.558989794129701</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.90312563563475</v>
@@ -45811,7 +45583,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.564464874995414</v>
+        <v>1.585626747170748</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.884481906669092</v>
@@ -45900,7 +45672,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.59807080368724</v>
+        <v>1.623040109587143</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.973014384590587</v>
@@ -45989,7 +45761,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.632418700224522</v>
+        <v>1.663792485433914</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.565690897371622</v>
@@ -46078,7 +45850,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.641253873320765</v>
+        <v>1.671771982152564</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.992168706104059</v>
@@ -46167,7 +45939,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.661095216474213</v>
+        <v>1.687561065647492</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.686588635172629</v>
@@ -46256,7 +46028,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.672754245738499</v>
+        <v>1.697952629973776</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.02680171152952</v>
@@ -46345,7 +46117,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.675595209195384</v>
+        <v>1.69639393944428</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.151120508959901</v>
@@ -46434,7 +46206,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.651081736965081</v>
+        <v>1.676589445587065</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.055311285915991</v>
@@ -46523,7 +46295,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.653378795802742</v>
+        <v>1.677630250766536</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.183801159705719</v>
@@ -46612,7 +46384,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.670912556369605</v>
+        <v>1.690295861236987</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.006857095181751</v>
@@ -46701,7 +46473,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.66789532208048</v>
+        <v>1.688523054290977</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.209160401563325</v>
@@ -46790,7 +46562,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.671260022719864</v>
+        <v>1.689717404697711</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.101149081273737</v>
@@ -46879,7 +46651,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.693688221103894</v>
+        <v>1.703980095228282</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.188147398845834</v>
@@ -46968,7 +46740,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.658209958129792</v>
+        <v>1.669732628259312</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.803904131679223</v>
@@ -47057,7 +46829,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.631887831599441</v>
+        <v>1.650116476251365</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.99523958704919</v>
@@ -47146,7 +46918,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.613987052866207</v>
+        <v>1.636565051089956</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.805539765803054</v>
@@ -47235,7 +47007,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.59997556112562</v>
+        <v>1.619794903309506</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.102172401223346</v>
@@ -47324,7 +47096,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.575356103051744</v>
+        <v>1.597572028576657</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.692116506312375</v>
@@ -47413,7 +47185,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.577782138475928</v>
+        <v>1.601602804802287</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.820586414072586</v>
@@ -47502,7 +47274,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.603087604693916</v>
+        <v>1.621562001111164</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.031212912406261</v>
@@ -47591,7 +47363,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.611686800772265</v>
+        <v>1.636392203205614</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.077366337380021</v>
@@ -47680,7 +47452,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.637007102085956</v>
+        <v>1.665561121071519</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.875017227255028</v>
@@ -47769,7 +47541,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.67988641311902</v>
+        <v>1.703747011681072</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.817913666320784</v>
@@ -47858,7 +47630,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.694248142381264</v>
+        <v>1.717880728972702</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.196076588417478</v>
@@ -47947,7 +47719,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.69011500845224</v>
+        <v>1.72197041693671</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.11355665851311</v>
@@ -48036,7 +47808,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.694639908721908</v>
+        <v>1.72327825796622</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.22729861758947</v>
@@ -48125,7 +47897,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.700223037565343</v>
+        <v>1.728089106760387</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.099290709929186</v>
@@ -48214,7 +47986,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.693797446761448</v>
+        <v>1.725612176579788</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.070600892457015</v>
@@ -48303,7 +48075,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.745532957251332</v>
+        <v>1.772401406590502</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.879013414890756</v>
@@ -48392,7 +48164,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.778756295786442</v>
+        <v>1.797868531823223</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.199239780398579</v>
@@ -48481,7 +48253,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.8079646569433</v>
+        <v>1.817535201291787</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.372741547948779</v>
@@ -48570,7 +48342,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.819949118053509</v>
+        <v>1.828904962175121</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.734753262029871</v>
@@ -48659,7 +48431,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.825277622266374</v>
+        <v>1.826728607543635</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.568126133064774</v>
@@ -48748,7 +48520,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.839279674621046</v>
+        <v>1.837313240454066</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.731614512534036</v>
@@ -48837,7 +48609,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.830608462804019</v>
+        <v>1.827273269265135</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.486383342937578</v>
@@ -48926,7 +48698,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.828567184389442</v>
+        <v>1.822790130366974</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.420006670704892</v>
@@ -49015,7 +48787,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.819551385219988</v>
+        <v>1.81064843228079</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.508819197784498</v>
@@ -49104,7 +48876,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.810484322794336</v>
+        <v>1.798583699983216</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.539195449677137</v>
@@ -49193,7 +48965,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.797468303006766</v>
+        <v>1.782842149529003</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.215844921771803</v>
@@ -49282,7 +49054,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.821879571400051</v>
+        <v>1.79869963642747</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.296638141245511</v>
@@ -49371,7 +49143,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.821773902136102</v>
+        <v>1.800764571139495</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.536217145780573</v>
@@ -49460,7 +49232,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.825670253802769</v>
+        <v>1.803810431623739</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.671496087628177</v>
@@ -49549,7 +49321,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.842911124352868</v>
+        <v>1.809328639594148</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.604738642668961</v>
@@ -49638,7 +49410,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.834474899685839</v>
+        <v>1.798767511775697</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.629580834044404</v>
@@ -49727,7 +49499,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.827542267207518</v>
+        <v>1.79136728431259</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.360544200788518</v>
@@ -49816,7 +49588,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.732544049980842</v>
+        <v>1.699223743683121</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.517102645854042</v>
@@ -49905,7 +49677,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.406389405088965</v>
+        <v>1.383510409657169</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.564979629283936</v>
@@ -49994,7 +49766,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.391162227532476</v>
+        <v>1.373310588942874</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.56274345352228</v>
@@ -50083,7 +49855,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.385049961301906</v>
+        <v>1.365069901727917</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.567720111857184</v>
@@ -50172,7 +49944,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.38533637465139</v>
+        <v>1.367794282430983</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.574143950842442</v>
@@ -50261,7 +50033,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.40128394297519</v>
+        <v>1.384363944533566</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.628997915643831</v>
@@ -50350,7 +50122,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.40868629907108</v>
+        <v>1.396049003983738</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.644317340011751</v>
@@ -50439,7 +50211,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.410950061297078</v>
+        <v>1.400603926982993</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.649950397312606</v>
@@ -50528,7 +50300,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.407338699108378</v>
+        <v>1.400162807250813</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.649687812478264</v>
@@ -50617,7 +50389,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.399696517278899</v>
+        <v>1.39434759982771</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.657758367283706</v>
@@ -50706,7 +50478,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.399328581424654</v>
+        <v>1.393891618027529</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.661387679597277</v>
@@ -50795,7 +50567,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.400158772280758</v>
+        <v>1.395722210786644</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.664466899361828</v>
@@ -50884,7 +50656,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.405376617719096</v>
+        <v>1.402545050826689</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.673834300456404</v>
@@ -50973,7 +50745,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.410767079150276</v>
+        <v>1.407018548875862</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.67331577685393</v>
@@ -51062,7 +50834,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.414499258193288</v>
+        <v>1.410569363986738</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.687732396770965</v>
@@ -51151,7 +50923,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.507338921955124</v>
+        <v>1.472993991501178</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.45948213027876</v>
@@ -51240,7 +51012,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.628091183346343</v>
+        <v>1.631861352573573</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.230830963329968</v>
@@ -51329,7 +51101,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.641981559128758</v>
+        <v>1.64462150416207</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.110352360085397</v>
@@ -51418,7 +51190,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.640662255459506</v>
+        <v>1.645420811004881</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.099043631464716</v>
@@ -51507,7 +51279,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.645553490864242</v>
+        <v>1.642053691284936</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.036497725818035</v>
@@ -51596,7 +51368,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.672168527331616</v>
+        <v>1.67211401886384</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.117486781800838</v>
@@ -51685,7 +51457,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.663933999023417</v>
+        <v>1.66211060104175</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.718576881325475</v>
@@ -51774,7 +51546,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.655213146473585</v>
+        <v>1.650173934239956</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.637882665109687</v>
@@ -51863,7 +51635,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.662670260646741</v>
+        <v>1.657055769304597</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.994730201182744</v>
@@ -51952,7 +51724,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.690624618210249</v>
+        <v>1.680065339536534</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.920759829223655</v>
